--- a/Testes/Testes_de_erro.xlsx
+++ b/Testes/Testes_de_erro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao\Desktop\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao\Desktop\VLC_Locator\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33941FEA-A3F8-41A2-BBAA-A439417787AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6F8CE-6850-4671-9F6D-EC0EF488629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625B8C0B-AC60-4226-9F7E-928CCBF98888}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="57">
   <si>
     <t>PONTOS</t>
   </si>
@@ -48,13 +48,7 @@
     <t>TESTE</t>
   </si>
   <si>
-    <t xml:space="preserve">P6P </t>
-  </si>
-  <si>
     <t>DILATAÇÃO</t>
-  </si>
-  <si>
-    <t>FILTRO PASSA BAIXA</t>
   </si>
   <si>
     <t>x(m)</t>
@@ -84,12 +78,6 @@
     <t>P4P</t>
   </si>
   <si>
-    <t>FILTRO PASSA-BAIXA</t>
-  </si>
-  <si>
-    <t>as que tem errro zero, é com celular totalmente paralelo</t>
-  </si>
-  <si>
     <t>P4P SIMULADO - sem erro de pixel d = 0.1m e diferentes rotacoes</t>
   </si>
   <si>
@@ -97,11 +85,6 @@
   </si>
   <si>
     <t>P4P SIMULADO - erro de pixel = 25 em y d = 0.3m e diferentes rotacoes</t>
-  </si>
-  <si>
-    <t>erro_pixels = [0.000000,1.000000,2.000000,3.000000,4.000000,5.000000,6.000000,7.000000,8.000000,9.000000,10.000000,11.000000,12.000000,13.000000,14.000000,15.000000,16.000000,17.000000,18.000000,19.000000,20.000000,21.000000,22.000000,23.000000,24.000000,25.000000,26.000000,27.000000,28.000000,29.000000,30.000000,31.000000,32.000000,33.000000,34.000000,35.000000,36.000000,37.000000,38.000000,39.000000,40.000000,41.000000,42.000000,43.000000,44.000000,45.000000,46.000000,47.000000,48.000000,49.000000]
-erroP4P = [0.068213,0.123827,0.097750,0.143083,0.168284,0.157013,0.082993,0.131038,0.032983,0.120141,0.116268,0.132357,0.169331,0.146748,0.157720,0.152577,0.157554,0.092065,0.142060,0.098993,0.177467,0.152716,0.130976,0.076108,0.118483,0.058090,0.138763,0.086716,0.175528,0.135030,0.171833,0.160048,0.144410,0.113981,0.111462,0.109408,0.121344,0.159533,0.158864,0.112812,0.154279,0.046201,0.126783,0.077950,0.137092,0.139303,0.178631,0.173682,0.135179,0.066218]
-erroP6P = [0.571983,1.264963,0.871244,1.441697,1.584051,1.224738,0.511624,0.780968,0.503790,1.535123,1.280780,1.358745,1.647115,1.427965,5.299276,1.096509,0.823664,9.399342,10.071975,1.228355,73.671540,2.095266,1.700187,0.846805,0.952728,1.297670,1.270909,0.879459,1.844890,1.515362,1.543179,0.910957,1.007562,0.568263,12.411187,1.124412,1.340423,2.669238,1.460225,0.843625,1.425531,0.872082,0.960622,0.721220,0.908430,58.223580,11.713485,4.219278,0.863831,2.998738]</t>
   </si>
   <si>
     <t>desvio padrão</t>
@@ -313,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -329,6 +312,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,14 +327,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -684,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3D6D02-03D4-4EA4-B9F5-DF08D3250A6E}">
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>1</v>
@@ -729,9 +715,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -755,16 +739,12 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
@@ -856,7 +836,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -864,15 +844,15 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
       <c r="P10" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -881,16 +861,16 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -898,9 +878,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -908,7 +886,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="P11" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -916,9 +894,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
@@ -928,92 +904,50 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="P12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="U12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="V12" t="s">
         <v>9</v>
       </c>
-      <c r="J12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" t="s">
-        <v>7</v>
-      </c>
-      <c r="U12" t="s">
-        <v>8</v>
-      </c>
-      <c r="V12" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" t="s">
-        <v>10</v>
-      </c>
-      <c r="X12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <v>3</v>
       </c>
       <c r="B13">
@@ -1036,30 +970,9 @@
         <f>AVERAGE(F13:F17)</f>
         <v>0.21341209913385617</v>
       </c>
-      <c r="H13" s="10">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="K13">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="L13">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="M13">
-        <f>SQRT(($B$4-J13)^2+($C$4-K13)^2+($D$4-L13)^2)</f>
-        <v>0.62490479274846333</v>
-      </c>
-      <c r="N13" s="10">
-        <f>AVERAGE(M13:M17)</f>
-        <v>1.4516308746918525</v>
-      </c>
-      <c r="P13" s="14">
+      <c r="H13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="P13" s="11">
         <v>3</v>
       </c>
       <c r="Q13">
@@ -1082,23 +995,11 @@
         <f>AVERAGE(U13:U17)</f>
         <v>0.48003877312027121</v>
       </c>
-      <c r="W13" s="14">
-        <v>3</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <f>SQRT(($B$4-Y13)^2+($C$4-Z13)^2+($D$4-AA13)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
-      <c r="AC13" s="10">
-        <f>AVERAGE(AB13:AB17)</f>
-        <v>1.6583123951776997</v>
-      </c>
+      <c r="W13" s="11"/>
+      <c r="AC13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="11"/>
       <c r="B14">
         <v>2</v>
       </c>
@@ -1117,16 +1018,8 @@
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14">
-        <f>I13+1</f>
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <f>SQRT(($B$4-J14)^2+($C$4-K14)^2+($D$4-L14)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
       <c r="N14" s="10"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="11"/>
       <c r="Q14">
         <v>2</v>
       </c>
@@ -1144,18 +1037,11 @@
         <v>0.49969990994595948</v>
       </c>
       <c r="V14" s="10"/>
-      <c r="W14" s="14"/>
-      <c r="X14">
-        <v>2</v>
-      </c>
-      <c r="AB14">
-        <f>SQRT(($B$4-Y14)^2+($C$4-Z14)^2+($D$4-AA14)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
+      <c r="W14" s="11"/>
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="11"/>
       <c r="B15">
         <v>3</v>
       </c>
@@ -1174,16 +1060,8 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15">
-        <f t="shared" ref="I15:I17" si="0">I14+1</f>
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <f>SQRT(($B$4-J15)^2+($C$4-K15)^2+($D$4-L15)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
       <c r="N15" s="10"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="11"/>
       <c r="Q15">
         <v>3</v>
       </c>
@@ -1201,18 +1079,11 @@
         <v>0.50689347993439404</v>
       </c>
       <c r="V15" s="10"/>
-      <c r="W15" s="14"/>
-      <c r="X15">
-        <v>3</v>
-      </c>
-      <c r="AB15">
-        <f>SQRT(($B$4-Y15)^2+($C$4-Z15)^2+($D$4-AA15)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
+      <c r="W15" s="11"/>
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
       <c r="B16">
         <v>4</v>
       </c>
@@ -1231,16 +1102,8 @@
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <f>SQRT(($B$4-J16)^2+($C$4-K16)^2+($D$4-L16)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
       <c r="N16" s="10"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="11"/>
       <c r="Q16">
         <v>4</v>
       </c>
@@ -1258,18 +1121,11 @@
         <v>0.4866990856782043</v>
       </c>
       <c r="V16" s="10"/>
-      <c r="W16" s="14"/>
-      <c r="X16">
-        <v>4</v>
-      </c>
-      <c r="AB16">
-        <f>SQRT(($B$4-Y16)^2+($C$4-Z16)^2+($D$4-AA16)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
+      <c r="W16" s="11"/>
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17">
         <v>5</v>
       </c>
@@ -1288,16 +1144,8 @@
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <f>SQRT(($B$4-J17)^2+($C$4-K17)^2+($D$4-L17)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
       <c r="N17" s="10"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="11"/>
       <c r="Q17">
         <v>5</v>
       </c>
@@ -1315,18 +1163,11 @@
         <v>0.42504352718280514</v>
       </c>
       <c r="V17" s="10"/>
-      <c r="W17" s="14"/>
-      <c r="X17">
-        <v>5</v>
-      </c>
-      <c r="AB17">
-        <f>SQRT(($B$4-Y17)^2+($C$4-Z17)^2+($D$4-AA17)^2)</f>
-        <v>1.6583123951776999</v>
-      </c>
+      <c r="W17" s="11"/>
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>1</v>
       </c>
       <c r="B18">
@@ -1349,7 +1190,7 @@
         <f>AVERAGE(F18:F22)</f>
         <v>0.18907016298049772</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="12">
         <v>1</v>
       </c>
       <c r="Q18">
@@ -1372,23 +1213,11 @@
         <f>AVERAGE(U18:U22)</f>
         <v>1.1340970246386475</v>
       </c>
-      <c r="W18" s="15">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <f>SQRT(($B$2-Y18)^2+($C$2-Z18)^2+($D$2-AA18)^2)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AC18" s="10">
-        <f>AVERAGE(AB18:AB22)</f>
-        <v>1.5</v>
-      </c>
+      <c r="W18" s="12"/>
+      <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="12"/>
       <c r="B19">
         <v>2</v>
       </c>
@@ -1406,7 +1235,7 @@
         <v>0.1245712647443221</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="P19" s="15"/>
+      <c r="P19" s="12"/>
       <c r="Q19">
         <v>2</v>
       </c>
@@ -1424,18 +1253,11 @@
         <v>1.1596007933767551</v>
       </c>
       <c r="V19" s="10"/>
-      <c r="W19" s="15"/>
-      <c r="X19">
-        <v>2</v>
-      </c>
-      <c r="AB19">
-        <f>SQRT(($B$2-Y19)^2+($C$2-Z19)^2+($D$2-AA19)^2)</f>
-        <v>1.5</v>
-      </c>
+      <c r="W19" s="12"/>
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="12"/>
       <c r="B20">
         <v>3</v>
       </c>
@@ -1453,7 +1275,7 @@
         <v>0.24255720974648431</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="P20" s="15"/>
+      <c r="P20" s="12"/>
       <c r="Q20">
         <v>3</v>
       </c>
@@ -1471,18 +1293,11 @@
         <v>1.1239546254186599</v>
       </c>
       <c r="V20" s="10"/>
-      <c r="W20" s="15"/>
-      <c r="X20">
-        <v>3</v>
-      </c>
-      <c r="AB20">
-        <f>SQRT(($B$2-Y20)^2+($C$2-Z20)^2+($D$2-AA20)^2)</f>
-        <v>1.5</v>
-      </c>
+      <c r="W20" s="12"/>
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="12"/>
       <c r="B21">
         <v>4</v>
       </c>
@@ -1500,7 +1315,7 @@
         <v>0.19182804800132855</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="P21" s="15"/>
+      <c r="P21" s="12"/>
       <c r="Q21">
         <v>4</v>
       </c>
@@ -1518,18 +1333,11 @@
         <v>1.1178094649805037</v>
       </c>
       <c r="V21" s="10"/>
-      <c r="W21" s="15"/>
-      <c r="X21">
-        <v>4</v>
-      </c>
-      <c r="AB21">
-        <f>SQRT(($B$2-Y21)^2+($C$2-Z21)^2+($D$2-AA21)^2)</f>
-        <v>1.5</v>
-      </c>
+      <c r="W21" s="12"/>
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="12"/>
       <c r="B22">
         <v>5</v>
       </c>
@@ -1547,7 +1355,7 @@
         <v>0.29183214353460107</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="P22" s="15"/>
+      <c r="P22" s="12"/>
       <c r="Q22">
         <v>5</v>
       </c>
@@ -1565,18 +1373,11 @@
         <v>1.1153811007902188</v>
       </c>
       <c r="V22" s="10"/>
-      <c r="W22" s="15"/>
-      <c r="X22">
-        <v>5</v>
-      </c>
-      <c r="AB22">
-        <f>SQRT(($B$2-Y22)^2+($C$2-Z22)^2+($D$2-AA22)^2)</f>
-        <v>1.5</v>
-      </c>
+      <c r="W22" s="12"/>
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="13">
         <v>2</v>
       </c>
       <c r="B23">
@@ -1599,7 +1400,7 @@
         <f>AVERAGE(F23:F27)</f>
         <v>0.29277517218347787</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="13">
         <v>2</v>
       </c>
       <c r="Q23">
@@ -1622,23 +1423,11 @@
         <f>AVERAGE(U23:U27)</f>
         <v>0.86269265404398721</v>
       </c>
-      <c r="W23" s="11">
-        <v>2</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <f>SQRT(($B$3-Y23)^2+($C$3-Z23)^2+($D$3-AA23)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="AC23" s="10">
-        <f>AVERAGE(AB23:AB27)</f>
-        <v>1.4142135623730951</v>
-      </c>
+      <c r="W23" s="13"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="13"/>
       <c r="B24">
         <v>2</v>
       </c>
@@ -1656,7 +1445,7 @@
         <v>0.18029420401111065</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="P24" s="11"/>
+      <c r="P24" s="13"/>
       <c r="Q24">
         <v>2</v>
       </c>
@@ -1674,18 +1463,11 @@
         <v>0.85556355696114117</v>
       </c>
       <c r="V24" s="10"/>
-      <c r="W24" s="11"/>
-      <c r="X24">
-        <v>2</v>
-      </c>
-      <c r="AB24">
-        <f>SQRT(($B$3-Y24)^2+($C$3-Z24)^2+($D$3-AA24)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
+      <c r="W24" s="13"/>
       <c r="AC24" s="10"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="13"/>
       <c r="B25">
         <v>3</v>
       </c>
@@ -1699,11 +1481,11 @@
         <v>0.89</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F27" si="1">SQRT(($B$3-C25)^2+($C$3-D25)^2+($D$3-E25)^2)</f>
+        <f t="shared" ref="F25:F27" si="0">SQRT(($B$3-C25)^2+($C$3-D25)^2+($D$3-E25)^2)</f>
         <v>0.15102317702922285</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="P25" s="11"/>
+      <c r="P25" s="13"/>
       <c r="Q25">
         <v>3</v>
       </c>
@@ -1717,22 +1499,15 @@
         <v>1.2130000000000001</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25:U27" si="2">SQRT(($B$3-R25)^2+($C$3-S25)^2+($D$3-T25)^2)</f>
+        <f t="shared" ref="U25:U27" si="1">SQRT(($B$3-R25)^2+($C$3-S25)^2+($D$3-T25)^2)</f>
         <v>0.85611739849158541</v>
       </c>
       <c r="V25" s="10"/>
-      <c r="W25" s="11"/>
-      <c r="X25">
-        <v>3</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" ref="AB25:AB27" si="3">SQRT(($B$3-Y25)^2+($C$3-Z25)^2+($D$3-AA25)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
+      <c r="W25" s="13"/>
       <c r="AC25" s="10"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="13"/>
       <c r="B26">
         <v>4</v>
       </c>
@@ -1746,11 +1521,11 @@
         <v>0.71499999999999997</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.3862887521013264</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="P26" s="11"/>
+      <c r="P26" s="13"/>
       <c r="Q26">
         <v>4</v>
       </c>
@@ -1764,22 +1539,15 @@
         <v>1.214</v>
       </c>
       <c r="U26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.87090125731910617</v>
       </c>
       <c r="V26" s="10"/>
-      <c r="W26" s="11"/>
-      <c r="X26">
-        <v>4</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="3"/>
-        <v>1.4142135623730951</v>
-      </c>
+      <c r="W26" s="13"/>
       <c r="AC26" s="10"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="13"/>
       <c r="B27">
         <v>5</v>
       </c>
@@ -1793,11 +1561,11 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.36753367192680458</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="P27" s="11"/>
+      <c r="P27" s="13"/>
       <c r="Q27">
         <v>5</v>
       </c>
@@ -1811,22 +1579,15 @@
         <v>1.234</v>
       </c>
       <c r="U27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.84528634201671571</v>
       </c>
       <c r="V27" s="10"/>
-      <c r="W27" s="11"/>
-      <c r="X27">
-        <v>5</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="3"/>
-        <v>1.4142135623730951</v>
-      </c>
+      <c r="W27" s="13"/>
       <c r="AC27" s="10"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="14">
         <v>4</v>
       </c>
       <c r="B28">
@@ -1849,7 +1610,7 @@
         <f>AVERAGE(F28:F32)</f>
         <v>0.25853724390055288</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="14">
         <v>4</v>
       </c>
       <c r="Q28">
@@ -1872,23 +1633,11 @@
         <f>AVERAGE(U28:U32)</f>
         <v>0.98188347846723012</v>
       </c>
-      <c r="W28" s="12">
-        <v>4</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="AB28">
-        <f>SQRT(($B$5-Y28)^2+($C$5-Z28)^2+($D$5-AA28)^2)</f>
-        <v>1.4025779835716801</v>
-      </c>
-      <c r="AC28" s="10">
-        <f>AVERAGE(AB28:AB32)</f>
-        <v>1.4025779835716801</v>
-      </c>
+      <c r="W28" s="14"/>
+      <c r="AC28" s="10"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
       <c r="B29">
         <v>2</v>
       </c>
@@ -1906,7 +1655,7 @@
         <v>0.45809278536121917</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="P29" s="12"/>
+      <c r="P29" s="14"/>
       <c r="Q29">
         <v>2</v>
       </c>
@@ -1924,18 +1673,11 @@
         <v>0.98051058127895796</v>
       </c>
       <c r="V29" s="10"/>
-      <c r="W29" s="12"/>
-      <c r="X29">
-        <v>2</v>
-      </c>
-      <c r="AB29">
-        <f>SQRT(($B$5-Y29)^2+($C$5-Z29)^2+($D$5-AA29)^2)</f>
-        <v>1.4025779835716801</v>
-      </c>
+      <c r="W29" s="14"/>
       <c r="AC29" s="10"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
       <c r="B30">
         <v>3</v>
       </c>
@@ -1953,7 +1695,7 @@
         <v>0.1361322886019331</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="P30" s="12"/>
+      <c r="P30" s="14"/>
       <c r="Q30">
         <v>3</v>
       </c>
@@ -1971,18 +1713,11 @@
         <v>0.98538317420179244</v>
       </c>
       <c r="V30" s="10"/>
-      <c r="W30" s="12"/>
-      <c r="X30">
-        <v>3</v>
-      </c>
-      <c r="AB30">
-        <f>SQRT(($B$5-Y30)^2+($C$5-Z30)^2+($D$5-AA30)^2)</f>
-        <v>1.4025779835716801</v>
-      </c>
+      <c r="W30" s="14"/>
       <c r="AC30" s="10"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31">
         <v>4</v>
       </c>
@@ -2000,7 +1735,7 @@
         <v>0.42914566291645079</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="P31" s="12"/>
+      <c r="P31" s="14"/>
       <c r="Q31">
         <v>4</v>
       </c>
@@ -2018,18 +1753,11 @@
         <v>0.94815241390822824</v>
       </c>
       <c r="V31" s="10"/>
-      <c r="W31" s="12"/>
-      <c r="X31">
-        <v>4</v>
-      </c>
-      <c r="AB31">
-        <f>SQRT(($B$5-Y31)^2+($C$5-Z31)^2+($D$5-AA31)^2)</f>
-        <v>1.4025779835716801</v>
-      </c>
+      <c r="W31" s="14"/>
       <c r="AC31" s="10"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32">
         <v>5</v>
       </c>
@@ -2047,7 +1775,7 @@
         <v>0.17934882213162145</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="P32" s="12"/>
+      <c r="P32" s="14"/>
       <c r="Q32">
         <v>5</v>
       </c>
@@ -2065,18 +1793,11 @@
         <v>0.97513742621232624</v>
       </c>
       <c r="V32" s="10"/>
-      <c r="W32" s="12"/>
-      <c r="X32">
-        <v>5</v>
-      </c>
-      <c r="AB32">
-        <f>SQRT(($B$5-Y32)^2+($C$5-Z32)^2+($D$5-AA32)^2)</f>
-        <v>1.4025779835716801</v>
-      </c>
+      <c r="W32" s="14"/>
       <c r="AC32" s="10"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="15">
         <v>5</v>
       </c>
       <c r="B33">
@@ -2099,7 +1820,7 @@
         <f>AVERAGE(F33:F37)</f>
         <v>0.14948065652998588</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="15">
         <v>5</v>
       </c>
       <c r="Q33">
@@ -2122,23 +1843,11 @@
         <f>AVERAGE(U33:U37)</f>
         <v>0.45127532817768223</v>
       </c>
-      <c r="W33" s="13">
-        <v>5</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="AB33">
-        <f>SQRT(($B$6-Y33)^2+($C$6-Z33)^2+($D$6-AA33)^2)</f>
-        <v>1.2369316876852983</v>
-      </c>
-      <c r="AC33" s="10">
-        <f>AVERAGE(AB33:AB37)</f>
-        <v>1.2369316876852983</v>
-      </c>
+      <c r="W33" s="15"/>
+      <c r="AC33" s="10"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15"/>
       <c r="B34">
         <v>2</v>
       </c>
@@ -2152,11 +1861,11 @@
         <v>1.3440000000000001</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F37" si="4">SQRT(($B$6-C34)^2+($C$6-D34)^2+($D$6-E34)^2)</f>
+        <f t="shared" ref="F34:F37" si="2">SQRT(($B$6-C34)^2+($C$6-D34)^2+($D$6-E34)^2)</f>
         <v>0.17612779451296162</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="P34" s="13"/>
+      <c r="P34" s="15"/>
       <c r="Q34">
         <v>2</v>
       </c>
@@ -2170,22 +1879,15 @@
         <v>1.228</v>
       </c>
       <c r="U34">
-        <f t="shared" ref="U34:U37" si="5">SQRT(($B$6-R34)^2+($C$6-S34)^2+($D$6-T34)^2)</f>
+        <f t="shared" ref="U34:U37" si="3">SQRT(($B$6-R34)^2+($C$6-S34)^2+($D$6-T34)^2)</f>
         <v>0.45015997156566462</v>
       </c>
       <c r="V34" s="10"/>
-      <c r="W34" s="13"/>
-      <c r="X34">
-        <v>2</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" ref="AB34:AB37" si="6">SQRT(($B$6-Y34)^2+($C$6-Z34)^2+($D$6-AA34)^2)</f>
-        <v>1.2369316876852983</v>
-      </c>
+      <c r="W34" s="15"/>
       <c r="AC34" s="10"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35">
         <v>3</v>
       </c>
@@ -2199,11 +1901,11 @@
         <v>1.4379999999999999</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.24115762480170513</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="P35" s="13"/>
+      <c r="P35" s="15"/>
       <c r="Q35">
         <v>3</v>
       </c>
@@ -2217,22 +1919,15 @@
         <v>1.212</v>
       </c>
       <c r="U35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.48098752582577436</v>
       </c>
       <c r="V35" s="10"/>
-      <c r="W35" s="13"/>
-      <c r="X35">
-        <v>3</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="6"/>
-        <v>1.2369316876852983</v>
-      </c>
+      <c r="W35" s="15"/>
       <c r="AC35" s="10"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
       <c r="B36">
         <v>4</v>
       </c>
@@ -2246,11 +1941,11 @@
         <v>1.248</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9.8152941881535075E-2</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="P36" s="13"/>
+      <c r="P36" s="15"/>
       <c r="Q36">
         <v>4</v>
       </c>
@@ -2264,22 +1959,15 @@
         <v>1.2090000000000001</v>
       </c>
       <c r="U36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.42792756396380915</v>
       </c>
       <c r="V36" s="10"/>
-      <c r="W36" s="13"/>
-      <c r="X36">
-        <v>4</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="6"/>
-        <v>1.2369316876852983</v>
-      </c>
+      <c r="W36" s="15"/>
       <c r="AC36" s="10"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15"/>
       <c r="B37">
         <v>5</v>
       </c>
@@ -2293,11 +1981,11 @@
         <v>1.1970000000000001</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.12628143173087639</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="P37" s="13"/>
+      <c r="P37" s="15"/>
       <c r="Q37">
         <v>5</v>
       </c>
@@ -2311,23 +1999,16 @@
         <v>1.2210000000000001</v>
       </c>
       <c r="U37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.41753184309702657</v>
       </c>
       <c r="V37" s="10"/>
-      <c r="W37" s="13"/>
-      <c r="X37">
-        <v>5</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="6"/>
-        <v>1.2369316876852983</v>
-      </c>
+      <c r="W37" s="15"/>
       <c r="AC37" s="10"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39">
@@ -2346,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39">
@@ -2411,14 +2092,9 @@
         <v>2.9067726478973984E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2427,7 +2103,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -2436,7 +2112,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="P44" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -2447,71 +2123,71 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" t="s">
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
+      <c r="M45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
+      <c r="N45" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" t="s">
         <v>7</v>
       </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="R45" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" t="s">
         <v>9</v>
       </c>
-      <c r="J45" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" t="s">
-        <v>6</v>
-      </c>
-      <c r="L45" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" t="s">
-        <v>11</v>
-      </c>
-      <c r="P45" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>9</v>
-      </c>
-      <c r="R45" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" t="s">
-        <v>6</v>
-      </c>
-      <c r="T45" t="s">
-        <v>7</v>
-      </c>
-      <c r="U45" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="11">
         <v>3</v>
       </c>
       <c r="B46">
@@ -2534,7 +2210,7 @@
         <f>AVERAGE(F46:F50)</f>
         <v>4.1073689643696724E-2</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="11">
         <v>3</v>
       </c>
       <c r="I46">
@@ -2557,7 +2233,7 @@
         <f>AVERAGE(M46:M50)</f>
         <v>0.194299349068079</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="11">
         <v>3</v>
       </c>
       <c r="Q46">
@@ -2582,7 +2258,7 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="11"/>
       <c r="B47">
         <v>2</v>
       </c>
@@ -2600,7 +2276,7 @@
         <v>6.3537390566500276E-2</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="14"/>
+      <c r="H47" s="11"/>
       <c r="I47">
         <v>2</v>
       </c>
@@ -2618,7 +2294,7 @@
         <v>0.13074020039758236</v>
       </c>
       <c r="N47" s="10"/>
-      <c r="P47" s="14"/>
+      <c r="P47" s="11"/>
       <c r="Q47">
         <v>2</v>
       </c>
@@ -2638,7 +2314,7 @@
       <c r="V47" s="10"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="11"/>
       <c r="B48">
         <v>3</v>
       </c>
@@ -2656,7 +2332,7 @@
         <v>2.3600847442411914E-2</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="14"/>
+      <c r="H48" s="11"/>
       <c r="I48">
         <v>3</v>
       </c>
@@ -2674,7 +2350,7 @@
         <v>0.43537799668793548</v>
       </c>
       <c r="N48" s="10"/>
-      <c r="P48" s="14"/>
+      <c r="P48" s="11"/>
       <c r="Q48">
         <v>3</v>
       </c>
@@ -2694,7 +2370,7 @@
       <c r="V48" s="10"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="11"/>
       <c r="B49">
         <v>4</v>
       </c>
@@ -2712,7 +2388,7 @@
         <v>4.6669047558312103E-2</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="14"/>
+      <c r="H49" s="11"/>
       <c r="I49">
         <v>4</v>
       </c>
@@ -2730,7 +2406,7 @@
         <v>0.14142135623730953</v>
       </c>
       <c r="N49" s="10"/>
-      <c r="P49" s="14"/>
+      <c r="P49" s="11"/>
       <c r="Q49">
         <v>4</v>
       </c>
@@ -2750,7 +2426,7 @@
       <c r="V49" s="10"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="11"/>
       <c r="B50">
         <v>5</v>
       </c>
@@ -2768,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="10"/>
-      <c r="H50" s="14"/>
+      <c r="H50" s="11"/>
       <c r="I50">
         <v>5</v>
       </c>
@@ -2786,7 +2462,7 @@
         <v>6.0605280298006985E-2</v>
       </c>
       <c r="N50" s="10"/>
-      <c r="P50" s="14"/>
+      <c r="P50" s="11"/>
       <c r="Q50">
         <v>5</v>
       </c>
@@ -2806,7 +2482,7 @@
       <c r="V50" s="10"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
+      <c r="A51" s="12">
         <v>1</v>
       </c>
       <c r="B51">
@@ -2829,7 +2505,7 @@
         <f>AVERAGE(F51:F55)</f>
         <v>6.294142484670795E-2</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="12">
         <v>1</v>
       </c>
       <c r="I51">
@@ -2852,7 +2528,7 @@
         <f>AVERAGE(M51:M55)</f>
         <v>0.16271385162467747</v>
       </c>
-      <c r="P51" s="15">
+      <c r="P51" s="12">
         <v>1</v>
       </c>
       <c r="Q51">
@@ -2877,7 +2553,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="12"/>
       <c r="B52">
         <v>2</v>
       </c>
@@ -2895,7 +2571,7 @@
         <v>7.3986485252375694E-2</v>
       </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="15"/>
+      <c r="H52" s="12"/>
       <c r="I52">
         <v>2</v>
       </c>
@@ -2913,7 +2589,7 @@
         <v>0.15763882770434451</v>
       </c>
       <c r="N52" s="10"/>
-      <c r="P52" s="15"/>
+      <c r="P52" s="12"/>
       <c r="Q52">
         <v>2</v>
       </c>
@@ -2933,7 +2609,7 @@
       <c r="V52" s="10"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="12"/>
       <c r="B53">
         <v>3</v>
       </c>
@@ -2951,7 +2627,7 @@
         <v>0.10265963179361201</v>
       </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="15"/>
+      <c r="H53" s="12"/>
       <c r="I53">
         <v>3</v>
       </c>
@@ -2969,7 +2645,7 @@
         <v>0.25798643375185448</v>
       </c>
       <c r="N53" s="10"/>
-      <c r="P53" s="15"/>
+      <c r="P53" s="12"/>
       <c r="Q53">
         <v>3</v>
       </c>
@@ -2989,7 +2665,7 @@
       <c r="V53" s="10"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
+      <c r="A54" s="12"/>
       <c r="B54">
         <v>4</v>
       </c>
@@ -3007,7 +2683,7 @@
         <v>7.1909665553387153E-2</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="15"/>
+      <c r="H54" s="12"/>
       <c r="I54">
         <v>4</v>
       </c>
@@ -3025,7 +2701,7 @@
         <v>0.21628222303277719</v>
       </c>
       <c r="N54" s="10"/>
-      <c r="P54" s="15"/>
+      <c r="P54" s="12"/>
       <c r="Q54">
         <v>4</v>
       </c>
@@ -3045,7 +2721,7 @@
       <c r="V54" s="10"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+      <c r="A55" s="12"/>
       <c r="B55">
         <v>5</v>
       </c>
@@ -3063,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="15"/>
+      <c r="H55" s="12"/>
       <c r="I55">
         <v>5</v>
       </c>
@@ -3081,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="10"/>
-      <c r="P55" s="15"/>
+      <c r="P55" s="12"/>
       <c r="Q55">
         <v>5</v>
       </c>
@@ -3101,7 +2777,7 @@
       <c r="V55" s="10"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+      <c r="A56" s="13">
         <v>2</v>
       </c>
       <c r="B56">
@@ -3124,7 +2800,7 @@
         <f>AVERAGE(F56:F60)</f>
         <v>4.3894180623038417E-2</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="13">
         <v>2</v>
       </c>
       <c r="I56">
@@ -3147,7 +2823,7 @@
         <f>AVERAGE(M56:M60)</f>
         <v>0.16631137383523314</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="13">
         <v>2</v>
       </c>
       <c r="Q56">
@@ -3172,7 +2848,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="13"/>
       <c r="B57">
         <v>2</v>
       </c>
@@ -3190,7 +2866,7 @@
         <v>4.415880433163924E-2</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="11"/>
+      <c r="H57" s="13"/>
       <c r="I57">
         <v>2</v>
       </c>
@@ -3208,7 +2884,7 @@
         <v>0.30020493000615439</v>
       </c>
       <c r="N57" s="10"/>
-      <c r="P57" s="11"/>
+      <c r="P57" s="13"/>
       <c r="Q57">
         <v>2</v>
       </c>
@@ -3228,7 +2904,7 @@
       <c r="V57" s="10"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="13"/>
       <c r="B58">
         <v>3</v>
       </c>
@@ -3242,11 +2918,11 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58:F60" si="7">SQRT(($B$3-C58)^2+($C$3-D58)^2+($D$3-E58)^2)</f>
+        <f t="shared" ref="F58:F60" si="4">SQRT(($B$3-C58)^2+($C$3-D58)^2+($D$3-E58)^2)</f>
         <v>2.5980762113533156E-2</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="11"/>
+      <c r="H58" s="13"/>
       <c r="I58">
         <v>3</v>
       </c>
@@ -3260,11 +2936,11 @@
         <v>1.0189999999999999</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58:M60" si="8">SQRT(($B$3-J58)^2+($C$3-K58)^2+($D$3-L58)^2)</f>
+        <f t="shared" ref="M58:M60" si="5">SQRT(($B$3-J58)^2+($C$3-K58)^2+($D$3-L58)^2)</f>
         <v>7.7168646482881895E-2</v>
       </c>
       <c r="N58" s="10"/>
-      <c r="P58" s="11"/>
+      <c r="P58" s="13"/>
       <c r="Q58">
         <v>3</v>
       </c>
@@ -3278,13 +2954,13 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="U58">
-        <f t="shared" ref="U58:U60" si="9">SQRT(($B$3-R58)^2+($C$3-S58)^2+($D$3-T58)^2)</f>
+        <f t="shared" ref="U58:U60" si="6">SQRT(($B$3-R58)^2+($C$3-S58)^2+($D$3-T58)^2)</f>
         <v>0.11256109452204165</v>
       </c>
       <c r="V58" s="10"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="13"/>
       <c r="B59">
         <v>4</v>
       </c>
@@ -3298,11 +2974,11 @@
         <v>0.93400000000000005</v>
       </c>
       <c r="F59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>8.0833161511844845E-2</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="13"/>
       <c r="I59">
         <v>4</v>
       </c>
@@ -3316,11 +2992,11 @@
         <v>0.8</v>
       </c>
       <c r="M59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.24494897427831777</v>
       </c>
       <c r="N59" s="10"/>
-      <c r="P59" s="11"/>
+      <c r="P59" s="13"/>
       <c r="Q59">
         <v>4</v>
       </c>
@@ -3334,13 +3010,13 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="U59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.23735416575236251</v>
       </c>
       <c r="V59" s="10"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="13"/>
       <c r="B60">
         <v>5</v>
       </c>
@@ -3354,11 +3030,11 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
+      <c r="H60" s="13"/>
       <c r="I60">
         <v>5</v>
       </c>
@@ -3372,11 +3048,11 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N60" s="10"/>
-      <c r="P60" s="11"/>
+      <c r="P60" s="13"/>
       <c r="Q60">
         <v>5</v>
       </c>
@@ -3390,13 +3066,13 @@
         <v>1.0089999999999999</v>
       </c>
       <c r="U60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1.272792206135771E-2</v>
       </c>
       <c r="V60" s="10"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="A61" s="14">
         <v>4</v>
       </c>
       <c r="B61">
@@ -3419,7 +3095,7 @@
         <f>AVERAGE(F61:F65)</f>
         <v>6.8475920350280897E-2</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="14">
         <v>4</v>
       </c>
       <c r="I61">
@@ -3442,7 +3118,7 @@
         <f>AVERAGE(M61:M65)</f>
         <v>0.19240957768254885</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61" s="14">
         <v>4</v>
       </c>
       <c r="Q61">
@@ -3467,7 +3143,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="14"/>
       <c r="B62">
         <v>2</v>
       </c>
@@ -3485,7 +3161,7 @@
         <v>7.533259586659681E-2</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="14"/>
       <c r="I62">
         <v>2</v>
       </c>
@@ -3503,7 +3179,7 @@
         <v>0.13074020039758238</v>
       </c>
       <c r="N62" s="10"/>
-      <c r="P62" s="12"/>
+      <c r="P62" s="14"/>
       <c r="Q62">
         <v>2</v>
       </c>
@@ -3523,7 +3199,7 @@
       <c r="V62" s="10"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="14"/>
       <c r="B63">
         <v>3</v>
       </c>
@@ -3541,7 +3217,7 @@
         <v>0.12308127396155753</v>
       </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="12"/>
+      <c r="H63" s="14"/>
       <c r="I63">
         <v>3</v>
       </c>
@@ -3559,7 +3235,7 @@
         <v>0.43887811519828596</v>
       </c>
       <c r="N63" s="10"/>
-      <c r="P63" s="12"/>
+      <c r="P63" s="14"/>
       <c r="Q63">
         <v>3</v>
       </c>
@@ -3579,7 +3255,7 @@
       <c r="V63" s="10"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="14"/>
       <c r="B64">
         <v>4</v>
       </c>
@@ -3597,7 +3273,7 @@
         <v>4.895916665957472E-2</v>
       </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="12"/>
+      <c r="H64" s="14"/>
       <c r="I64">
         <v>4</v>
       </c>
@@ -3615,7 +3291,7 @@
         <v>0.18698128248570767</v>
       </c>
       <c r="N64" s="10"/>
-      <c r="P64" s="12"/>
+      <c r="P64" s="14"/>
       <c r="Q64">
         <v>4</v>
       </c>
@@ -3635,7 +3311,7 @@
       <c r="V64" s="10"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="14"/>
       <c r="B65">
         <v>5</v>
       </c>
@@ -3653,7 +3329,7 @@
         <v>2.5357444666212047E-2</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="12"/>
+      <c r="H65" s="14"/>
       <c r="I65">
         <v>5</v>
       </c>
@@ -3671,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="10"/>
-      <c r="P65" s="12"/>
+      <c r="P65" s="14"/>
       <c r="Q65">
         <v>5</v>
       </c>
@@ -3691,7 +3367,7 @@
       <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
+      <c r="A66" s="15">
         <v>5</v>
       </c>
       <c r="B66">
@@ -3714,7 +3390,7 @@
         <f>AVERAGE(F66:F70)</f>
         <v>0.12331480481971246</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="15">
         <v>5</v>
       </c>
       <c r="I66">
@@ -3737,7 +3413,7 @@
         <f>AVERAGE(M66:M70)</f>
         <v>0.18102175008675037</v>
       </c>
-      <c r="P66" s="13">
+      <c r="P66" s="15">
         <v>5</v>
       </c>
       <c r="Q66">
@@ -3762,7 +3438,7 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67">
         <v>2</v>
       </c>
@@ -3776,11 +3452,11 @@
         <v>1.2569999999999999</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F70" si="10">SQRT(($B$6-C67)^2+($C$6-D67)^2+($D$6-E67)^2)</f>
+        <f t="shared" ref="F67:F70" si="7">SQRT(($B$6-C67)^2+($C$6-D67)^2+($D$6-E67)^2)</f>
         <v>7.0278019323256349E-2</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="13"/>
+      <c r="H67" s="15"/>
       <c r="I67">
         <v>2</v>
       </c>
@@ -3794,11 +3470,11 @@
         <v>1.357</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M70" si="11">SQRT(($B$6-J67)^2+($C$6-K67)^2+($D$6-L67)^2)</f>
+        <f t="shared" ref="M67:M70" si="8">SQRT(($B$6-J67)^2+($C$6-K67)^2+($D$6-L67)^2)</f>
         <v>0.2031304999255405</v>
       </c>
       <c r="N67" s="10"/>
-      <c r="P67" s="13"/>
+      <c r="P67" s="15"/>
       <c r="Q67">
         <v>2</v>
       </c>
@@ -3812,13 +3488,13 @@
         <v>1.419</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U70" si="12">SQRT(($B$6-R67)^2+($C$6-S67)^2+($D$6-T67)^2)</f>
+        <f t="shared" ref="U67:U70" si="9">SQRT(($B$6-R67)^2+($C$6-S67)^2+($D$6-T67)^2)</f>
         <v>0.25483720293552126</v>
       </c>
       <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="15"/>
       <c r="B68">
         <v>3</v>
       </c>
@@ -3832,11 +3508,11 @@
         <v>1.613</v>
       </c>
       <c r="F68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.41978804175440732</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="15"/>
       <c r="I68">
         <v>3</v>
       </c>
@@ -3850,11 +3526,11 @@
         <v>1.5349999999999999</v>
       </c>
       <c r="M68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.33981465536377325</v>
       </c>
       <c r="N68" s="10"/>
-      <c r="P68" s="13"/>
+      <c r="P68" s="15"/>
       <c r="Q68">
         <v>3</v>
       </c>
@@ -3868,13 +3544,13 @@
         <v>1.2210000000000001</v>
       </c>
       <c r="U68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>7.2739260375673354E-2</v>
       </c>
       <c r="V68" s="10"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69">
         <v>4</v>
       </c>
@@ -3888,11 +3564,11 @@
         <v>1.167</v>
       </c>
       <c r="F69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.6669047558312082E-2</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="13"/>
+      <c r="H69" s="15"/>
       <c r="I69">
         <v>4</v>
       </c>
@@ -3906,11 +3582,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.14142135623730942</v>
       </c>
       <c r="N69" s="10"/>
-      <c r="P69" s="13"/>
+      <c r="P69" s="15"/>
       <c r="Q69">
         <v>4</v>
       </c>
@@ -3924,13 +3600,13 @@
         <v>1.2470000000000001</v>
       </c>
       <c r="U69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.11560709320798625</v>
       </c>
       <c r="V69" s="10"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="15"/>
       <c r="B70">
         <v>5</v>
       </c>
@@ -3944,11 +3620,11 @@
         <v>1.2110000000000001</v>
       </c>
       <c r="F70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.1180339887499068E-2</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="13"/>
+      <c r="H70" s="15"/>
       <c r="I70">
         <v>5</v>
       </c>
@@ -3962,11 +3638,11 @@
         <v>1.198</v>
       </c>
       <c r="M70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>4.5825756949558439E-3</v>
       </c>
       <c r="N70" s="10"/>
-      <c r="P70" s="13"/>
+      <c r="P70" s="15"/>
       <c r="Q70">
         <v>5</v>
       </c>
@@ -3980,14 +3656,14 @@
         <v>1.165</v>
       </c>
       <c r="U70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>3.5227829907616991E-2</v>
       </c>
       <c r="V70" s="10"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72">
@@ -4006,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72">
@@ -4025,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72">
@@ -4112,17 +3788,79 @@
         <v>9.4875174662050699E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="P78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="V78" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="V78" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="W23:W27"/>
+    <mergeCell ref="AC23:AC27"/>
+    <mergeCell ref="W28:W32"/>
+    <mergeCell ref="AC28:AC32"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="V23:V27"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="V28:V32"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="W33:W37"/>
+    <mergeCell ref="AC33:AC37"/>
+    <mergeCell ref="W11:AC11"/>
+    <mergeCell ref="W13:W17"/>
+    <mergeCell ref="AC13:AC17"/>
+    <mergeCell ref="W18:W22"/>
+    <mergeCell ref="AC18:AC22"/>
+    <mergeCell ref="P33:P37"/>
+    <mergeCell ref="V33:V37"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="V13:V17"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="V18:V22"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="G66:G70"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="N46:N50"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="N51:N55"/>
+    <mergeCell ref="V56:V60"/>
+    <mergeCell ref="P61:P65"/>
+    <mergeCell ref="V61:V65"/>
+    <mergeCell ref="P66:P70"/>
+    <mergeCell ref="V66:V70"/>
+    <mergeCell ref="P56:P60"/>
     <mergeCell ref="A39:B40"/>
     <mergeCell ref="P39:Q40"/>
     <mergeCell ref="A72:B73"/>
@@ -4139,70 +3877,6 @@
     <mergeCell ref="N61:N65"/>
     <mergeCell ref="H66:H70"/>
     <mergeCell ref="N66:N70"/>
-    <mergeCell ref="V56:V60"/>
-    <mergeCell ref="P61:P65"/>
-    <mergeCell ref="V61:V65"/>
-    <mergeCell ref="P66:P70"/>
-    <mergeCell ref="V66:V70"/>
-    <mergeCell ref="P56:P60"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="N46:N50"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="N51:N55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="G66:G70"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="P33:P37"/>
-    <mergeCell ref="V33:V37"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="V13:V17"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="V18:V22"/>
-    <mergeCell ref="W33:W37"/>
-    <mergeCell ref="AC33:AC37"/>
-    <mergeCell ref="W11:AC11"/>
-    <mergeCell ref="W13:W17"/>
-    <mergeCell ref="AC13:AC17"/>
-    <mergeCell ref="W18:W22"/>
-    <mergeCell ref="AC18:AC22"/>
-    <mergeCell ref="P10:AC10"/>
-    <mergeCell ref="W23:W27"/>
-    <mergeCell ref="AC23:AC27"/>
-    <mergeCell ref="W28:W32"/>
-    <mergeCell ref="AC28:AC32"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="V23:V27"/>
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="V28:V32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4221,7 +3895,7 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4229,7 +3903,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4267,7 +3941,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <f>(B4^2+B5^2+B6^2)^(1/2)</f>
@@ -4317,7 +3991,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <f>B$4*B8+B$5*B9+B$6*B10</f>
@@ -4344,7 +4018,7 @@
         <v>-0.65700000000000003</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <f>F9/B11</f>
@@ -4361,7 +4035,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <f>(B8^2+B9^2+B10^2)^(1/2)</f>
@@ -4376,7 +4050,7 @@
         <v>0.99996249929684866</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <f>ACOS(F10)*180/PI()</f>
@@ -4391,7 +4065,7 @@
         <v>48.92665233210834</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J11">
         <f>ABS(F11-J$7)</f>
@@ -4432,7 +4106,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <f>B$4*B12+B$5*B13+B$6*B14</f>
@@ -4459,7 +4133,7 @@
         <v>-0.58499999999999996</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <f>F13/B15</f>
@@ -4476,7 +4150,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <f>(B12^2+B13^2+B14^2)^(1/2)</f>
@@ -4491,7 +4165,7 @@
         <v>0.99982948546239625</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <f>ACOS(F14)*180/PI()</f>
@@ -4506,7 +4180,7 @@
         <v>54.189961523213142</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <f>ABS(F15-J$7)</f>
@@ -4547,7 +4221,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <f>B$4*B16+B$5*B17+B$6*B18</f>
@@ -4574,7 +4248,7 @@
         <v>-0.57199999999999995</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <f>F17/B19</f>
@@ -4591,7 +4265,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <f>(B16^2+B17^2+B18^2)^(1/2)</f>
@@ -4606,7 +4280,7 @@
         <v>0.9997999799959989</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <f>ACOS(F18)*180/PI()</f>
@@ -4621,7 +4295,7 @@
         <v>55.102196305973045</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J19">
         <f>ABS(F19-J$7)</f>
@@ -4662,7 +4336,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <f>B$4*B20+B$5*B21+B$6*B22</f>
@@ -4689,7 +4363,7 @@
         <v>-0.51300000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <f>F21/B23</f>
@@ -4706,7 +4380,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <f>(B20^2+B21^2+B22^2)^(1/2)</f>
@@ -4721,7 +4395,7 @@
         <v>1.0001784840717181</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <f>ACOS(F22)*180/PI()</f>
@@ -4736,7 +4410,7 @@
         <v>59.142244663221227</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J23">
         <f>ABS(F23-J$7)</f>
@@ -4777,7 +4451,7 @@
         <v>0.03</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <f>B$4*B24+B$5*B25+B$6*B26</f>
@@ -4804,7 +4478,7 @@
         <v>-0.52200000000000002</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <f>F25/B27</f>
@@ -4821,7 +4495,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <f>(B24^2+B25^2+B26^2)^(1/2)</f>
@@ -4836,7 +4510,7 @@
         <v>0.99964393660943096</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <f>ACOS(F26)*180/PI()</f>
@@ -4851,7 +4525,7 @@
         <v>58.52100600563714</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J27">
         <f>ABS(F27-J$7)</f>
@@ -4868,7 +4542,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J29">
         <f>AVERAGE(J11,J15,J19,J23,J27)</f>
@@ -4885,7 +4559,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J30">
         <f>_xlfn.STDEV.S(J11,J15,J19,J23,J27)</f>
@@ -4902,7 +4576,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -4910,7 +4584,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4948,7 +4622,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <f>(B33^2+B34^2+B35^2)^(1/2)</f>
@@ -4998,7 +4672,7 @@
         <v>0.113</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F38">
         <f>B$4*B37+B$5*B38+B$6*B39</f>
@@ -5025,7 +4699,7 @@
         <v>-6.3E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F39">
         <f>F38/B40</f>
@@ -5042,7 +4716,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <f>(B37^2+B38^2+B39^2)^(1/2)</f>
@@ -5057,7 +4731,7 @@
         <v>1.0004009196317245</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <f>ACOS(F39)*180/PI()</f>
@@ -5072,7 +4746,7 @@
         <v>86.389423314319075</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J40">
         <f>ABS(F40-J$36)</f>
@@ -5113,7 +4787,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <f>B$4*B41+B$5*B42+B$6*B43</f>
@@ -5140,7 +4814,7 @@
         <v>-0.16600000000000001</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F43">
         <f>F42/B44</f>
@@ -5157,7 +4831,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <f>(B41^2+B42^2+B43^2)^(1/2)</f>
@@ -5172,7 +4846,7 @@
         <v>0.99985899005809808</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <f>ACOS(F43)*180/PI()</f>
@@ -5187,7 +4861,7 @@
         <v>80.443308356677363</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J44">
         <f>ABS(F44-J$36)</f>
@@ -5228,7 +4902,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F46">
         <f>B$4*B45+B$5*B46+B$6*B47</f>
@@ -5255,7 +4929,7 @@
         <v>-0.29799999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F47">
         <f>F46/B48</f>
@@ -5272,7 +4946,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <f>(B45^2+B46^2+B47^2)^(1/2)</f>
@@ -5287,7 +4961,7 @@
         <v>0.99985198904637873</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <f>ACOS(F47)*180/PI()</f>
@@ -5302,7 +4976,7 @@
         <v>72.659834127041805</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J48">
         <f>ABS(F48-J$36)</f>
@@ -5343,7 +5017,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F50">
         <f>B$4*B49+B$5*B50+B$6*B51</f>
@@ -5370,7 +5044,7 @@
         <v>-0.161</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F51">
         <f>F50/B52</f>
@@ -5387,7 +5061,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <f>(B49^2+B50^2+B51^2)^(1/2)</f>
@@ -5402,7 +5076,7 @@
         <v>1.0002104778495375</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F52">
         <f>ACOS(F51)*180/PI()</f>
@@ -5417,7 +5091,7 @@
         <v>80.737022271322274</v>
       </c>
       <c r="I52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J52">
         <f>ABS(F52-J$36)</f>
@@ -5458,7 +5132,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F54">
         <f>B$4*B53+B$5*B54+B$6*B55</f>
@@ -5485,7 +5159,7 @@
         <v>-0.40400000000000003</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F55">
         <f>F54/B56</f>
@@ -5502,7 +5176,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <f>(B53^2+B54^2+B55^2)^(1/2)</f>
@@ -5517,7 +5191,7 @@
         <v>1.0005328580311594</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F56">
         <f>ACOS(F55)*180/PI()</f>
@@ -5532,7 +5206,7 @@
         <v>66.184998646986003</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J56">
         <f>ABS(F56-J$36)</f>
@@ -5549,7 +5223,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J58">
         <f>AVERAGE(J40,J44,J48,J52,J56)</f>
@@ -5566,7 +5240,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J59">
         <f>_xlfn.STDEV.S(J40,J44,J48,J52,J56)</f>
@@ -5583,7 +5257,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -5591,7 +5265,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5629,7 +5303,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <f>(B62^2+B63^2+B64^2)^(1/2)</f>
@@ -5679,7 +5353,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F67">
         <f>B$4*B66+B$5*B67+B$6*B68</f>
@@ -5706,7 +5380,7 @@
         <v>-0.51100000000000001</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F68">
         <f>F67/B69</f>
@@ -5723,7 +5397,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B69">
         <f>(B66^2+B67^2+B68^2)^(1/2)</f>
@@ -5738,7 +5412,7 @@
         <v>1.0000204997898794</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <f>ACOS(F68)*180/PI()</f>
@@ -5753,7 +5427,7 @@
         <v>59.270236004458084</v>
       </c>
       <c r="I69" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J69">
         <f>ABS(F69-J$65)</f>
@@ -5794,7 +5468,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F71">
         <f>B$4*B70+B$5*B71+B$6*B72</f>
@@ -5821,7 +5495,7 @@
         <v>-0.36699999999999999</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F72">
         <f>F71/B73</f>
@@ -5838,7 +5512,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B73">
         <f>(B70^2+B71^2+B72^2)^(1/2)</f>
@@ -5853,7 +5527,7 @@
         <v>1.0003589355826237</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F73">
         <f>ACOS(F72)*180/PI()</f>
@@ -5868,7 +5542,7 @@
         <v>68.477392504859026</v>
       </c>
       <c r="I73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J73">
         <f>ABS(F73-J$65)</f>
@@ -5909,7 +5583,7 @@
         <v>0.113</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F75">
         <f>B$4*B74+B$5*B75+B$6*B76</f>
@@ -5936,7 +5610,7 @@
         <v>-0.42199999999999999</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F76">
         <f>F75/B77</f>
@@ -5953,7 +5627,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B77">
         <f>(B74^2+B75^2+B76^2)^(1/2)</f>
@@ -5968,7 +5642,7 @@
         <v>0.99952688808255685</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F77">
         <f>ACOS(F76)*180/PI()</f>
@@ -5983,7 +5657,7 @@
         <v>65.026455147338496</v>
       </c>
       <c r="I77" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J77">
         <f>ABS(F77-J$65)</f>
@@ -6024,7 +5698,7 @@
         <v>0.12</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F79">
         <f>B$4*B78+B$5*B79+B$6*B80</f>
@@ -6051,7 +5725,7 @@
         <v>-0.53100000000000003</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F80">
         <f>F79/B81</f>
@@ -6068,7 +5742,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <f>(B78^2+B79^2+B80^2)^(1/2)</f>
@@ -6083,7 +5757,7 @@
         <v>1.0001409900609013</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F81">
         <f>ACOS(F80)*180/PI()</f>
@@ -6098,7 +5772,7 @@
         <v>57.932015530362008</v>
       </c>
       <c r="I81" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J81">
         <f>ABS(F81-J$65)</f>
@@ -6139,7 +5813,7 @@
         <v>0.112</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F83">
         <f>B$4*B82+B$5*B83+B$6*B84</f>
@@ -6166,7 +5840,7 @@
         <v>-0.54700000000000004</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F84">
         <f>F83/B85</f>
@@ -6183,7 +5857,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B85">
         <f>(B82^2+B83^2+B84^2)^(1/2)</f>
@@ -6198,7 +5872,7 @@
         <v>0.99949687343182814</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F85">
         <f>ACOS(F84)*180/PI()</f>
@@ -6213,7 +5887,7 @@
         <v>56.819709433802409</v>
       </c>
       <c r="I85" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J85">
         <f>ABS(F85-J$65)</f>
@@ -6230,7 +5904,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J87">
         <f>AVERAGE(J69,J73,J77,J81,J85)</f>
@@ -6247,7 +5921,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J88">
         <f>_xlfn.STDEV.S(J69,J73,J77,J81,J85)</f>
@@ -6264,7 +5938,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -6272,7 +5946,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -6310,7 +5984,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B94">
         <f>(B91^2+B92^2+B93^2)^(1/2)</f>
@@ -6360,7 +6034,7 @@
         <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F96">
         <f>B$4*B95+B$5*B96+B$6*B97</f>
@@ -6387,7 +6061,7 @@
         <v>-0.91400000000000003</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F97">
         <f>F96/B98</f>
@@ -6404,7 +6078,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B98">
         <f>(B95^2+B96^2+B97^2)^(1/2)</f>
@@ -6419,7 +6093,7 @@
         <v>1.0002029793996816</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F98">
         <f>ACOS(F97)*180/PI()</f>
@@ -6434,7 +6108,7 @@
         <v>23.962070564192885</v>
       </c>
       <c r="I98" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J98">
         <f>ABS(F98-J$94)</f>
@@ -6475,7 +6149,7 @@
         <v>0.02</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F100">
         <f>B$4*B99+B$5*B100+B$6*B101</f>
@@ -6502,7 +6176,7 @@
         <v>-0.73</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F101">
         <f>F100/B102</f>
@@ -6519,7 +6193,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B102">
         <f>(B99^2+B100^2+B101^2)^(1/2)</f>
@@ -6534,7 +6208,7 @@
         <v>0.99989449443428779</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F102">
         <f>ACOS(F101)*180/PI()</f>
@@ -6549,7 +6223,7 @@
         <v>43.107148096750862</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J102">
         <f>ABS(F102-J$94)</f>
@@ -6590,7 +6264,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F104">
         <f>B$4*B103+B$5*B104+B$6*B105</f>
@@ -6617,7 +6291,7 @@
         <v>-0.94599999999999995</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F105">
         <f>F104/B106</f>
@@ -6634,7 +6308,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B106">
         <f>(B103^2+B104^2+B105^2)^(1/2)</f>
@@ -6649,7 +6323,7 @@
         <v>1.0002584665975089</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F106">
         <f>ACOS(F105)*180/PI()</f>
@@ -6664,7 +6338,7 @@
         <v>18.958250730400952</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J106">
         <f>ABS(F106-J$94)</f>
@@ -6705,7 +6379,7 @@
         <v>-0.113</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F108">
         <f>B$4*B107+B$5*B108+B$6*B109</f>
@@ -6732,7 +6406,7 @@
         <v>-0.97199999999999998</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F109">
         <f>F108/B110</f>
@@ -6749,7 +6423,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B110">
         <f>(B107^2+B108^2+B109^2)^(1/2)</f>
@@ -6764,7 +6438,7 @@
         <v>1.0008261587308755</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F110">
         <f>ACOS(F109)*180/PI()</f>
@@ -6779,7 +6453,7 @@
         <v>13.784773475838755</v>
       </c>
       <c r="I110" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J110">
         <f>ABS(F110-J$94)</f>
@@ -6820,7 +6494,7 @@
         <v>-8.8999999999999996E-2</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F112">
         <f>B$4*B111+B$5*B112+B$6*B113</f>
@@ -6847,7 +6521,7 @@
         <v>-0.97399999999999998</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F113">
         <f>F112/B114</f>
@@ -6864,7 +6538,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B114">
         <f>(B111^2+B112^2+B113^2)^(1/2)</f>
@@ -6879,7 +6553,7 @@
         <v>0.99972296162486929</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F114">
         <f>ACOS(F113)*180/PI()</f>
@@ -6894,7 +6568,7 @@
         <v>13.025485167455786</v>
       </c>
       <c r="I114" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J114">
         <f>ABS(F114-J$94)</f>
@@ -6911,7 +6585,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J116">
         <f>AVERAGE(J98,J102,J106,J110,J114)</f>
@@ -6928,7 +6602,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J117">
         <f>_xlfn.STDEV.S(J98,J102,J106,J110,J114)</f>
@@ -6945,7 +6619,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -6953,7 +6627,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6991,7 +6665,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B123">
         <f>(B120^2+B121^2+B122^2)^(1/2)</f>
@@ -7041,7 +6715,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F125">
         <f>B$4*B124+B$5*B125+B$6*B126</f>
@@ -7068,7 +6742,7 @@
         <v>-1</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F126">
         <f>F125/B127</f>
@@ -7085,7 +6759,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B127">
         <f>(B124^2+B125^2+B126^2)^(1/2)</f>
@@ -7100,7 +6774,7 @@
         <v>1.0006008195079594</v>
       </c>
       <c r="E127" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F127">
         <f>ACOS(F126)*180/PI()</f>
@@ -7115,7 +6789,7 @@
         <v>1.9856419959072091</v>
       </c>
       <c r="I127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J127">
         <f>ABS(F127-J$123)</f>
@@ -7156,7 +6830,7 @@
         <v>1E-3</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F129">
         <f>B$4*B128+B$5*B129+B$6*B130</f>
@@ -7183,7 +6857,7 @@
         <v>-1</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F130">
         <f>F129/B131</f>
@@ -7200,7 +6874,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B131">
         <f>(B128^2+B129^2+B130^2)^(1/2)</f>
@@ -7215,7 +6889,7 @@
         <v>1.0000049999875</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F131">
         <f>ACOS(F130)*180/PI()</f>
@@ -7230,7 +6904,7 @@
         <v>0.18118455962812643</v>
       </c>
       <c r="I131" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J131">
         <f>ABS(F131-J$94)</f>
@@ -7271,7 +6945,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F133">
         <f>B$4*B132+B$5*B133+B$6*B134</f>
@@ -7298,7 +6972,7 @@
         <v>-0.98899999999999999</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F134">
         <f>F133/B135</f>
@@ -7315,7 +6989,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B135">
         <f>(B132^2+B133^2+B134^2)^(1/2)</f>
@@ -7330,7 +7004,7 @@
         <v>0.99987299193447565</v>
       </c>
       <c r="E135" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F135">
         <f>ACOS(F134)*180/PI()</f>
@@ -7345,7 +7019,7 @@
         <v>8.4573457970841712</v>
       </c>
       <c r="I135" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J135">
         <f>ABS(F135-J$94)</f>
@@ -7386,7 +7060,7 @@
         <v>-0.129</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F137">
         <f>B$4*B136+B$5*B137+B$6*B138</f>
@@ -7413,7 +7087,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F138">
         <f>F137/B139</f>
@@ -7430,7 +7104,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B139">
         <f>(B136^2+B137^2+B138^2)^(1/2)</f>
@@ -7445,7 +7119,7 @@
         <v>0.99984148743688361</v>
       </c>
       <c r="E139" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F139">
         <f>ACOS(F138)*180/PI()</f>
@@ -7460,7 +7134,7 @@
         <v>7.6252708693145959</v>
       </c>
       <c r="I139" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J139">
         <f>ABS(F139-J$94)</f>
@@ -7501,7 +7175,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F141">
         <f>B$4*B140+B$5*B141+B$6*B142</f>
@@ -7528,7 +7202,7 @@
         <v>-0.96399999999999997</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F142">
         <f>F141/B143</f>
@@ -7545,7 +7219,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B143">
         <f>(B140^2+B141^2+B142^2)^(1/2)</f>
@@ -7560,7 +7234,7 @@
         <v>0.99979997999599901</v>
       </c>
       <c r="E143" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F143">
         <f>ACOS(F142)*180/PI()</f>
@@ -7575,7 +7249,7 @@
         <v>15.378959603109287</v>
       </c>
       <c r="I143" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J143">
         <f>ABS(F143-J$94)</f>
@@ -7592,7 +7266,7 @@
     </row>
     <row r="145" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J145">
         <f>AVERAGE(J127,J131,J135,J139,J143)</f>
@@ -7609,7 +7283,7 @@
     </row>
     <row r="146" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J146">
         <f>_xlfn.STDEV.S(J127,J131,J135,J139,J143)</f>
@@ -7626,6 +7300,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A95:A97"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A49:A51"/>
@@ -7639,28 +7335,6 @@
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A124:A126"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7671,7 +7345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB130B4-6025-4D6C-9CD3-509EC152E76B}">
   <dimension ref="A3:Q146"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
@@ -7679,7 +7353,7 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -7687,7 +7361,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7725,7 +7399,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <f>(B4^2+B5^2+B6^2)^(1/2)</f>
@@ -7775,7 +7449,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <f>B$4*B8+B$5*B9+B$6*B10</f>
@@ -7802,7 +7476,7 @@
         <v>-0.96299999999999997</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <f>F9/B11</f>
@@ -7819,7 +7493,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <f>(B8^2+B9^2+B10^2)^(1/2)</f>
@@ -7834,7 +7508,7 @@
         <v>0.99936930110945466</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <f>ACOS(F10)*180/PI()</f>
@@ -7849,7 +7523,7 @@
         <v>15.50486759690869</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J11">
         <f>ABS(F11-J$7)</f>
@@ -7890,7 +7564,7 @@
         <v>-0.01</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <f>B$4*B12+B$5*B13+B$6*B14</f>
@@ -7917,7 +7591,7 @@
         <v>-0.96399999999999997</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <f>F13/B15</f>
@@ -7934,7 +7608,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <f>(B12^2+B13^2+B14^2)^(1/2)</f>
@@ -7949,7 +7623,7 @@
         <v>1.0000759971122195</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <f>ACOS(F14)*180/PI()</f>
@@ -7964,7 +7638,7 @@
         <v>15.436347815445052</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <f>ABS(F15-J$7)</f>
@@ -8005,7 +7679,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <f>B$4*B16+B$5*B17+B$6*B18</f>
@@ -8032,7 +7706,7 @@
         <v>-0.96299999999999997</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <f>F17/B19</f>
@@ -8049,7 +7723,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <f>(B16^2+B17^2+B18^2)^(1/2)</f>
@@ -8064,7 +7738,7 @@
         <v>1.0001949809912065</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <f>ACOS(F18)*180/PI()</f>
@@ -8079,7 +7753,7 @@
         <v>15.674460623004133</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J19">
         <f>ABS(F19-J$7)</f>
@@ -8120,7 +7794,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <f>B$4*B20+B$5*B21+B$6*B22</f>
@@ -8147,7 +7821,7 @@
         <v>-0.96299999999999997</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <f>F21/B23</f>
@@ -8164,7 +7838,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <f>(B20^2+B21^2+B22^2)^(1/2)</f>
@@ -8179,7 +7853,7 @@
         <v>1.0001589873615093</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <f>ACOS(F22)*180/PI()</f>
@@ -8194,7 +7868,7 @@
         <v>15.667110731711631</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J23">
         <f>ABS(F23-J$7)</f>
@@ -8235,7 +7909,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <f>B$4*B24+B$5*B25+B$6*B26</f>
@@ -8262,7 +7936,7 @@
         <v>-0.96299999999999997</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <f>F25/B27</f>
@@ -8279,7 +7953,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <f>(B24^2+B25^2+B26^2)^(1/2)</f>
@@ -8294,7 +7968,7 @@
         <v>0.99988299315469908</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F27">
         <f>ACOS(F26)*180/PI()</f>
@@ -8309,7 +7983,7 @@
         <v>15.610623006319271</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J27">
         <f>ABS(F27-J$7)</f>
@@ -8326,7 +8000,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J29">
         <f>AVERAGE(J11,J15,J19,J23,J27)</f>
@@ -8343,7 +8017,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J30">
         <f>_xlfn.STDEV.S(J11,J15,J19,J23,J27)</f>
@@ -8360,7 +8034,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -8368,7 +8042,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8406,7 +8080,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <f>(B33^2+B34^2+B35^2)^(1/2)</f>
@@ -8465,7 +8139,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F38">
         <f>B$4*B37+B$5*B38+B$6*B39</f>
@@ -8501,7 +8175,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F39">
         <f>F38/B40</f>
@@ -8527,7 +8201,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <f>(B37^2+B38^2+B39^2)^(1/2)</f>
@@ -8542,7 +8216,7 @@
         <v>0.99977047365882932</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <f>ACOS(F39)*180/PI()</f>
@@ -8557,7 +8231,7 @@
         <v>7.5948115115723125</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J40">
         <f>ABS(F40-J$36)</f>
@@ -8598,7 +8272,7 @@
         <v>0.01</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <f>B$4*B41+B$5*B42+B$6*B43</f>
@@ -8625,7 +8299,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F43">
         <f>F42/B44</f>
@@ -8642,7 +8316,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <f>(B41^2+B42^2+B43^2)^(1/2)</f>
@@ -8657,7 +8331,7 @@
         <v>1.000474887241054</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <f>ACOS(F43)*180/PI()</f>
@@ -8672,7 +8346,7 @@
         <v>7.8915970329349205</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J44">
         <f>ABS(F44-J$36)</f>
@@ -8713,7 +8387,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F46">
         <f>B$4*B45+B$5*B46+B$6*B47</f>
@@ -8740,7 +8414,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F47">
         <f>F46/B48</f>
@@ -8757,7 +8431,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <f>(B45^2+B46^2+B47^2)^(1/2)</f>
@@ -8772,7 +8446,7 @@
         <v>0.99989749474633649</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <f>ACOS(F47)*180/PI()</f>
@@ -8787,7 +8461,7 @@
         <v>7.6492055414425346</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J48">
         <f>ABS(F48-J$36)</f>
@@ -8828,7 +8502,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F50">
         <f>B$4*B49+B$5*B50+B$6*B51</f>
@@ -8855,7 +8529,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F51">
         <f>F50/B52</f>
@@ -8872,7 +8546,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <f>(B49^2+B50^2+B51^2)^(1/2)</f>
@@ -8887,7 +8561,7 @@
         <v>1.0001654863071412</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F52">
         <f>ACOS(F51)*180/PI()</f>
@@ -8902,7 +8576,7 @@
         <v>7.762679729372759</v>
       </c>
       <c r="I52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J52">
         <f>ABS(F52-J$36)</f>
@@ -8943,7 +8617,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F54">
         <f>B$4*B53+B$5*B54+B$6*B55</f>
@@ -8970,7 +8644,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F55">
         <f>F54/B56</f>
@@ -8987,7 +8661,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <f>(B53^2+B54^2+B55^2)^(1/2)</f>
@@ -9002,7 +8676,7 @@
         <v>1.0000364993338993</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F56">
         <f>ACOS(F55)*180/PI()</f>
@@ -9017,7 +8691,7 @@
         <v>7.7082783366165124</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J56">
         <f>ABS(F56-J$36)</f>
@@ -9034,7 +8708,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J58">
         <f>AVERAGE(J40,J44,J48,J52,J56)</f>
@@ -9051,7 +8725,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J59">
         <f>_xlfn.STDEV.S(J40,J44,J48,J52,J56)</f>
@@ -9068,7 +8742,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -9076,7 +8750,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -9114,7 +8788,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <f>(B62^2+B63^2+B64^2)^(1/2)</f>
@@ -9164,7 +8838,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F67">
         <f>B$4*B66+B$5*B67+B$6*B68</f>
@@ -9191,7 +8865,7 @@
         <v>-0.78300000000000003</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F68">
         <f>F67/B69</f>
@@ -9208,7 +8882,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B69">
         <f>(B66^2+B67^2+B68^2)^(1/2)</f>
@@ -9223,7 +8897,7 @@
         <v>0.99975697046832335</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <f>ACOS(F68)*180/PI()</f>
@@ -9238,7 +8912,7 @@
         <v>38.446384904910424</v>
       </c>
       <c r="I69" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J69">
         <f>ABS(F69-J$65)</f>
@@ -9279,7 +8953,7 @@
         <v>-2.7E-2</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F71">
         <f>B$4*B70+B$5*B71+B$6*B72</f>
@@ -9306,7 +8980,7 @@
         <v>-0.84</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F72">
         <f>F71/B73</f>
@@ -9323,7 +8997,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B73">
         <f>(B70^2+B71^2+B72^2)^(1/2)</f>
@@ -9338,7 +9012,7 @@
         <v>0.99950487742681871</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F73">
         <f>ACOS(F72)*180/PI()</f>
@@ -9353,7 +9027,7 @@
         <v>32.815914181129557</v>
       </c>
       <c r="I73" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J73">
         <f>ABS(F73-J$65)</f>
@@ -9394,7 +9068,7 @@
         <v>-4.7E-2</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F75">
         <f>B$4*B74+B$5*B75+B$6*B76</f>
@@ -9421,7 +9095,7 @@
         <v>-0.83899999999999997</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F76">
         <f>F75/B77</f>
@@ -9438,7 +9112,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B77">
         <f>(B74^2+B75^2+B76^2)^(1/2)</f>
@@ -9453,7 +9127,7 @@
         <v>0.99994699859542557</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F77">
         <f>ACOS(F76)*180/PI()</f>
@@ -9468,7 +9142,7 @@
         <v>32.960644801006985</v>
       </c>
       <c r="I77" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J77">
         <f>ABS(F77-J$65)</f>
@@ -9509,7 +9183,7 @@
         <v>-4.7E-2</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F79">
         <f>B$4*B78+B$5*B79+B$6*B80</f>
@@ -9536,7 +9210,7 @@
         <v>-0.84</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F80">
         <f>F79/B81</f>
@@ -9553,7 +9227,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <f>(B78^2+B79^2+B80^2)^(1/2)</f>
@@ -9568,7 +9242,7 @@
         <v>0.99970445632696869</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F81">
         <f>ACOS(F80)*180/PI()</f>
@@ -9583,7 +9257,7 @@
         <v>32.833648040205354</v>
       </c>
       <c r="I81" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J81">
         <f>ABS(F81-J$65)</f>
@@ -9624,7 +9298,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F83">
         <f>B$4*B82+B$5*B83+B$6*B84</f>
@@ -9651,7 +9325,7 @@
         <v>-0.84099999999999997</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F84">
         <f>F83/B85</f>
@@ -9668,7 +9342,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B85">
         <f>(B82^2+B83^2+B84^2)^(1/2)</f>
@@ -9683,7 +9357,7 @@
         <v>1.00016248679902</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F85">
         <f>ACOS(F84)*180/PI()</f>
@@ -9698,7 +9372,7 @@
         <v>32.768597949987949</v>
       </c>
       <c r="I85" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J85">
         <f>ABS(F85-J$65)</f>
@@ -9715,7 +9389,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J87">
         <f>AVERAGE(J69,J73,J77,J81,J85)</f>
@@ -9732,7 +9406,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J88">
         <f>_xlfn.STDEV.S(J69,J73,J77,J81,J85)</f>
@@ -9749,7 +9423,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -9757,7 +9431,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -9795,7 +9469,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B94">
         <f>(B91^2+B92^2+B93^2)^(1/2)</f>
@@ -9845,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F96">
         <f>B$4*B95+B$5*B96+B$6*B97</f>
@@ -9872,7 +9546,7 @@
         <v>-0.996</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F97">
         <f>F96/B98</f>
@@ -9889,7 +9563,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B98">
         <f>(B95^2+B96^2+B97^2)^(1/2)</f>
@@ -9904,7 +9578,7 @@
         <v>0.99996849950385935</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F98">
         <f>ACOS(F97)*180/PI()</f>
@@ -9919,7 +9593,7 @@
         <v>5.1062417205402957</v>
       </c>
       <c r="I98" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J98">
         <f>ABS(F98-J$94)</f>
@@ -9960,7 +9634,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F100">
         <f>B$4*B99+B$5*B100+B$6*B101</f>
@@ -9987,7 +9661,7 @@
         <v>-0.97599999999999998</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F101">
         <f>F100/B102</f>
@@ -10004,7 +9678,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B102">
         <f>(B99^2+B100^2+B101^2)^(1/2)</f>
@@ -10019,7 +9693,7 @@
         <v>1.0000579983180975</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F102">
         <f>ACOS(F101)*180/PI()</f>
@@ -10034,7 +9708,7 @@
         <v>12.593002353465391</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J102">
         <f>ABS(F102-J$94)</f>
@@ -10075,7 +9749,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F104">
         <f>B$4*B103+B$5*B104+B$6*B105</f>
@@ -10102,7 +9776,7 @@
         <v>-0.97299999999999998</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F105">
         <f>F104/B106</f>
@@ -10119,7 +9793,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B106">
         <f>(B103^2+B104^2+B105^2)^(1/2)</f>
@@ -10134,7 +9808,7 @@
         <v>0.99959291714177323</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F106">
         <f>ACOS(F105)*180/PI()</f>
@@ -10149,7 +9823,7 @@
         <v>13.245751033998765</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J106">
         <f>ABS(F106-J$94)</f>
@@ -10190,7 +9864,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F108">
         <f>B$4*B107+B$5*B108+B$6*B109</f>
@@ -10217,7 +9891,7 @@
         <v>-0.97499999999999998</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F109">
         <f>F108/B110</f>
@@ -10234,7 +9908,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B110">
         <f>(B107^2+B108^2+B109^2)^(1/2)</f>
@@ -10249,7 +9923,7 @@
         <v>1.0001894820482766</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F110">
         <f>ACOS(F109)*180/PI()</f>
@@ -10264,7 +9938,7 @@
         <v>12.886109288241849</v>
       </c>
       <c r="I110" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J110">
         <f>ABS(F110-J$94)</f>
@@ -10305,7 +9979,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F112">
         <f>B$4*B111+B$5*B112+B$6*B113</f>
@@ -10332,7 +10006,7 @@
         <v>-0.98399999999999999</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F113">
         <f>F112/B114</f>
@@ -10349,7 +10023,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B114">
         <f>(B111^2+B112^2+B113^2)^(1/2)</f>
@@ -10364,7 +10038,7 @@
         <v>0.99981048204147172</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F114">
         <f>ACOS(F113)*180/PI()</f>
@@ -10379,7 +10053,7 @@
         <v>10.20293966381977</v>
       </c>
       <c r="I114" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J114">
         <f>ABS(F114-J$94)</f>
@@ -10396,7 +10070,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J116">
         <f>AVERAGE(J98,J102,J106,J110,J114)</f>
@@ -10413,7 +10087,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J117">
         <f>_xlfn.STDEV.S(J98,J102,J106,J110,J114)</f>
@@ -10430,7 +10104,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -10438,7 +10112,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -10476,7 +10150,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B123">
         <f>(B120^2+B121^2+B122^2)^(1/2)</f>
@@ -10526,7 +10200,7 @@
         <v>-2.7E-2</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F125">
         <f>B$4*B124+B$5*B125+B$6*B126</f>
@@ -10553,7 +10227,7 @@
         <v>-0.97899999999999998</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F126">
         <f>F125/B127</f>
@@ -10570,7 +10244,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B127">
         <f>(B124^2+B125^2+B126^2)^(1/2)</f>
@@ -10585,7 +10259,7 @@
         <v>1.0003929228058344</v>
       </c>
       <c r="E127" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F127">
         <f>ACOS(F126)*180/PI()</f>
@@ -10600,7 +10274,7 @@
         <v>11.870373131905424</v>
       </c>
       <c r="I127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J127">
         <f>ABS(F127-J$123)</f>
@@ -10641,7 +10315,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F129">
         <f>B$4*B128+B$5*B129+B$6*B130</f>
@@ -10668,7 +10342,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F130">
         <f>F129/B131</f>
@@ -10685,7 +10359,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B131">
         <f>(B128^2+B129^2+B130^2)^(1/2)</f>
@@ -10700,7 +10374,7 @@
         <v>1.0003694317600873</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F131">
         <f>ACOS(F130)*180/PI()</f>
@@ -10715,7 +10389,7 @@
         <v>6.9589128199137011</v>
       </c>
       <c r="I131" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J131">
         <f>ABS(F131-J$94)</f>
@@ -10756,7 +10430,7 @@
         <v>1E-3</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F133">
         <f>B$4*B132+B$5*B133+B$6*B134</f>
@@ -10783,7 +10457,7 @@
         <v>-0.93</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F134">
         <f>F133/B135</f>
@@ -10800,7 +10474,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B135">
         <f>(B132^2+B133^2+B134^2)^(1/2)</f>
@@ -10815,7 +10489,7 @@
         <v>0.99979497898319136</v>
       </c>
       <c r="E135" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F135">
         <f>ACOS(F134)*180/PI()</f>
@@ -10830,7 +10504,7 @@
         <v>21.535437499070778</v>
       </c>
       <c r="I135" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J135">
         <f>ABS(F135-J$94)</f>
@@ -10871,7 +10545,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F137">
         <f>B$4*B136+B$5*B137+B$6*B138</f>
@@ -10898,7 +10572,7 @@
         <v>-0.92600000000000005</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F138">
         <f>F137/B139</f>
@@ -10915,7 +10589,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B139">
         <f>(B136^2+B137^2+B138^2)^(1/2)</f>
@@ -10930,7 +10604,7 @@
         <v>1.0040144421272037</v>
       </c>
       <c r="E139" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F139">
         <f>ACOS(F138)*180/PI()</f>
@@ -10945,7 +10619,7 @@
         <v>22.735695400151243</v>
       </c>
       <c r="I139" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J139">
         <f>ABS(F139-J$94)</f>
@@ -10986,7 +10660,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F141">
         <f>B$4*B140+B$5*B141+B$6*B142</f>
@@ -11013,7 +10687,7 @@
         <v>-0.96899999999999997</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F142">
         <f>F141/B143</f>
@@ -11030,7 +10704,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B143">
         <f>(B140^2+B141^2+B142^2)^(1/2)</f>
@@ -11045,7 +10719,7 @@
         <v>0.99953339113808493</v>
       </c>
       <c r="E143" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F143">
         <f>ACOS(F142)*180/PI()</f>
@@ -11060,7 +10734,7 @@
         <v>14.198363730325871</v>
       </c>
       <c r="I143" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J143">
         <f>ABS(F143-J$94)</f>
@@ -11077,7 +10751,7 @@
     </row>
     <row r="145" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J145">
         <f>AVERAGE(J127,J131,J135,J139,J143)</f>
@@ -11094,7 +10768,7 @@
     </row>
     <row r="146" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J146">
         <f>_xlfn.STDEV.S(J127,J131,J135,J139,J143)</f>
@@ -11111,12 +10785,23 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A119:D119"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A32:D32"/>
@@ -11129,23 +10814,12 @@
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -11168,7 +10842,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="7">
         <v>6.0999999999999999E-5</v>
@@ -11176,25 +10850,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11549,7 +11223,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -11569,12 +11243,12 @@
         <v>188.43037497644619</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>13</v>
@@ -11594,50 +11268,50 @@
         <v>170.76502732240436</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -11832,30 +11506,30 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -11881,7 +11555,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -11907,7 +11581,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -11933,7 +11607,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
@@ -11954,12 +11628,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -11985,7 +11659,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -12011,7 +11685,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <f>SUM(E10:E11)</f>

--- a/Testes/Testes_de_erro.xlsx
+++ b/Testes/Testes_de_erro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao\Desktop\VLC_Locator\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6F8CE-6850-4671-9F6D-EC0EF488629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B65B9-F47E-4581-9EED-493DA3FEE15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625B8C0B-AC60-4226-9F7E-928CCBF98888}"/>
   </bookViews>
@@ -40,12 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="58">
   <si>
     <t>PONTOS</t>
-  </si>
-  <si>
-    <t>TESTE</t>
   </si>
   <si>
     <t>DILATAÇÃO</t>
@@ -168,12 +165,6 @@
     <t>f max</t>
   </si>
   <si>
-    <t>fator 3</t>
-  </si>
-  <si>
-    <t>fator 4</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
@@ -211,6 +202,18 @@
   </si>
   <si>
     <t>15v</t>
+  </si>
+  <si>
+    <t>f pwm</t>
+  </si>
+  <si>
+    <t>fator 8</t>
+  </si>
+  <si>
+    <t>fator 6</t>
+  </si>
+  <si>
+    <t>fator 7</t>
   </si>
 </sst>
 </file>
@@ -296,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -312,12 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,12 +324,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3D6D02-03D4-4EA4-B9F5-DF08D3250A6E}">
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,17 +691,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -805,6 +807,7 @@
       <c r="I7">
         <v>0.753</v>
       </c>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F8">
@@ -836,7 +839,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -852,7 +855,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="P10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -860,7 +863,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="W10" s="17"/>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
@@ -870,7 +873,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -886,7 +889,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="P11" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -894,60 +897,67 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="P12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="T12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="U12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="V12" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V12" t="s">
-        <v>9</v>
-      </c>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="14">
         <v>3</v>
       </c>
       <c r="B13">
@@ -972,7 +982,7 @@
       </c>
       <c r="H13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="P13" s="11">
+      <c r="P13" s="14">
         <v>3</v>
       </c>
       <c r="Q13">
@@ -995,11 +1005,16 @@
         <f>AVERAGE(U13:U17)</f>
         <v>0.48003877312027121</v>
       </c>
-      <c r="W13" s="11"/>
-      <c r="AC13" s="10"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14">
         <v>2</v>
       </c>
@@ -1019,7 +1034,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="P14" s="11"/>
+      <c r="P14" s="14"/>
       <c r="Q14">
         <v>2</v>
       </c>
@@ -1037,11 +1052,16 @@
         <v>0.49969990994595948</v>
       </c>
       <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
-      <c r="AC14" s="10"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15">
         <v>3</v>
       </c>
@@ -1061,7 +1081,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="P15" s="11"/>
+      <c r="P15" s="14"/>
       <c r="Q15">
         <v>3</v>
       </c>
@@ -1079,11 +1099,16 @@
         <v>0.50689347993439404</v>
       </c>
       <c r="V15" s="10"/>
-      <c r="W15" s="11"/>
-      <c r="AC15" s="10"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="14"/>
       <c r="B16">
         <v>4</v>
       </c>
@@ -1103,7 +1128,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="N16" s="10"/>
-      <c r="P16" s="11"/>
+      <c r="P16" s="14"/>
       <c r="Q16">
         <v>4</v>
       </c>
@@ -1121,11 +1146,16 @@
         <v>0.4866990856782043</v>
       </c>
       <c r="V16" s="10"/>
-      <c r="W16" s="11"/>
-      <c r="AC16" s="10"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17">
         <v>5</v>
       </c>
@@ -1145,7 +1175,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="N17" s="10"/>
-      <c r="P17" s="11"/>
+      <c r="P17" s="14"/>
       <c r="Q17">
         <v>5</v>
       </c>
@@ -1163,11 +1193,16 @@
         <v>0.42504352718280514</v>
       </c>
       <c r="V17" s="10"/>
-      <c r="W17" s="11"/>
-      <c r="AC17" s="10"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="15">
         <v>1</v>
       </c>
       <c r="B18">
@@ -1190,7 +1225,7 @@
         <f>AVERAGE(F18:F22)</f>
         <v>0.18907016298049772</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="15">
         <v>1</v>
       </c>
       <c r="Q18">
@@ -1213,11 +1248,16 @@
         <f>AVERAGE(U18:U22)</f>
         <v>1.1340970246386475</v>
       </c>
-      <c r="W18" s="12"/>
-      <c r="AC18" s="10"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19">
         <v>2</v>
       </c>
@@ -1235,7 +1275,7 @@
         <v>0.1245712647443221</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="P19" s="12"/>
+      <c r="P19" s="15"/>
       <c r="Q19">
         <v>2</v>
       </c>
@@ -1253,11 +1293,16 @@
         <v>1.1596007933767551</v>
       </c>
       <c r="V19" s="10"/>
-      <c r="W19" s="12"/>
-      <c r="AC19" s="10"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="B20">
         <v>3</v>
       </c>
@@ -1275,7 +1320,7 @@
         <v>0.24255720974648431</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="P20" s="12"/>
+      <c r="P20" s="15"/>
       <c r="Q20">
         <v>3</v>
       </c>
@@ -1293,11 +1338,16 @@
         <v>1.1239546254186599</v>
       </c>
       <c r="V20" s="10"/>
-      <c r="W20" s="12"/>
-      <c r="AC20" s="10"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
       <c r="B21">
         <v>4</v>
       </c>
@@ -1315,7 +1365,7 @@
         <v>0.19182804800132855</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="P21" s="12"/>
+      <c r="P21" s="15"/>
       <c r="Q21">
         <v>4</v>
       </c>
@@ -1333,11 +1383,16 @@
         <v>1.1178094649805037</v>
       </c>
       <c r="V21" s="10"/>
-      <c r="W21" s="12"/>
-      <c r="AC21" s="10"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="B22">
         <v>5</v>
       </c>
@@ -1355,7 +1410,7 @@
         <v>0.29183214353460107</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="P22" s="12"/>
+      <c r="P22" s="15"/>
       <c r="Q22">
         <v>5</v>
       </c>
@@ -1373,11 +1428,16 @@
         <v>1.1153811007902188</v>
       </c>
       <c r="V22" s="10"/>
-      <c r="W22" s="12"/>
-      <c r="AC22" s="10"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>2</v>
       </c>
       <c r="B23">
@@ -1400,7 +1460,7 @@
         <f>AVERAGE(F23:F27)</f>
         <v>0.29277517218347787</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="11">
         <v>2</v>
       </c>
       <c r="Q23">
@@ -1423,11 +1483,16 @@
         <f>AVERAGE(U23:U27)</f>
         <v>0.86269265404398721</v>
       </c>
-      <c r="W23" s="13"/>
-      <c r="AC23" s="10"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24">
         <v>2</v>
       </c>
@@ -1445,7 +1510,7 @@
         <v>0.18029420401111065</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="P24" s="13"/>
+      <c r="P24" s="11"/>
       <c r="Q24">
         <v>2</v>
       </c>
@@ -1463,11 +1528,16 @@
         <v>0.85556355696114117</v>
       </c>
       <c r="V24" s="10"/>
-      <c r="W24" s="13"/>
-      <c r="AC24" s="10"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="11"/>
       <c r="B25">
         <v>3</v>
       </c>
@@ -1485,7 +1555,7 @@
         <v>0.15102317702922285</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="P25" s="13"/>
+      <c r="P25" s="11"/>
       <c r="Q25">
         <v>3</v>
       </c>
@@ -1503,11 +1573,16 @@
         <v>0.85611739849158541</v>
       </c>
       <c r="V25" s="10"/>
-      <c r="W25" s="13"/>
-      <c r="AC25" s="10"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26">
         <v>4</v>
       </c>
@@ -1525,7 +1600,7 @@
         <v>0.3862887521013264</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="P26" s="13"/>
+      <c r="P26" s="11"/>
       <c r="Q26">
         <v>4</v>
       </c>
@@ -1543,11 +1618,16 @@
         <v>0.87090125731910617</v>
       </c>
       <c r="V26" s="10"/>
-      <c r="W26" s="13"/>
-      <c r="AC26" s="10"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27">
         <v>5</v>
       </c>
@@ -1565,7 +1645,7 @@
         <v>0.36753367192680458</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="P27" s="13"/>
+      <c r="P27" s="11"/>
       <c r="Q27">
         <v>5</v>
       </c>
@@ -1583,11 +1663,16 @@
         <v>0.84528634201671571</v>
       </c>
       <c r="V27" s="10"/>
-      <c r="W27" s="13"/>
-      <c r="AC27" s="10"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="12">
         <v>4</v>
       </c>
       <c r="B28">
@@ -1610,7 +1695,7 @@
         <f>AVERAGE(F28:F32)</f>
         <v>0.25853724390055288</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="12">
         <v>4</v>
       </c>
       <c r="Q28">
@@ -1633,11 +1718,16 @@
         <f>AVERAGE(U28:U32)</f>
         <v>0.98188347846723012</v>
       </c>
-      <c r="W28" s="14"/>
-      <c r="AC28" s="10"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29">
         <v>2</v>
       </c>
@@ -1655,7 +1745,7 @@
         <v>0.45809278536121917</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="P29" s="14"/>
+      <c r="P29" s="12"/>
       <c r="Q29">
         <v>2</v>
       </c>
@@ -1673,11 +1763,16 @@
         <v>0.98051058127895796</v>
       </c>
       <c r="V29" s="10"/>
-      <c r="W29" s="14"/>
-      <c r="AC29" s="10"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30">
         <v>3</v>
       </c>
@@ -1695,7 +1790,7 @@
         <v>0.1361322886019331</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="P30" s="14"/>
+      <c r="P30" s="12"/>
       <c r="Q30">
         <v>3</v>
       </c>
@@ -1713,11 +1808,16 @@
         <v>0.98538317420179244</v>
       </c>
       <c r="V30" s="10"/>
-      <c r="W30" s="14"/>
-      <c r="AC30" s="10"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31">
         <v>4</v>
       </c>
@@ -1735,7 +1835,7 @@
         <v>0.42914566291645079</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="P31" s="14"/>
+      <c r="P31" s="12"/>
       <c r="Q31">
         <v>4</v>
       </c>
@@ -1753,11 +1853,16 @@
         <v>0.94815241390822824</v>
       </c>
       <c r="V31" s="10"/>
-      <c r="W31" s="14"/>
-      <c r="AC31" s="10"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32">
         <v>5</v>
       </c>
@@ -1775,7 +1880,7 @@
         <v>0.17934882213162145</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="P32" s="14"/>
+      <c r="P32" s="12"/>
       <c r="Q32">
         <v>5</v>
       </c>
@@ -1793,11 +1898,16 @@
         <v>0.97513742621232624</v>
       </c>
       <c r="V32" s="10"/>
-      <c r="W32" s="14"/>
-      <c r="AC32" s="10"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="13">
         <v>5</v>
       </c>
       <c r="B33">
@@ -1820,7 +1930,7 @@
         <f>AVERAGE(F33:F37)</f>
         <v>0.14948065652998588</v>
       </c>
-      <c r="P33" s="15">
+      <c r="P33" s="13">
         <v>5</v>
       </c>
       <c r="Q33">
@@ -1843,11 +1953,16 @@
         <f>AVERAGE(U33:U37)</f>
         <v>0.45127532817768223</v>
       </c>
-      <c r="W33" s="15"/>
-      <c r="AC33" s="10"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="13"/>
       <c r="B34">
         <v>2</v>
       </c>
@@ -1865,7 +1980,7 @@
         <v>0.17612779451296162</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="P34" s="15"/>
+      <c r="P34" s="13"/>
       <c r="Q34">
         <v>2</v>
       </c>
@@ -1883,11 +1998,16 @@
         <v>0.45015997156566462</v>
       </c>
       <c r="V34" s="10"/>
-      <c r="W34" s="15"/>
-      <c r="AC34" s="10"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="13"/>
       <c r="B35">
         <v>3</v>
       </c>
@@ -1905,7 +2025,7 @@
         <v>0.24115762480170513</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="P35" s="15"/>
+      <c r="P35" s="13"/>
       <c r="Q35">
         <v>3</v>
       </c>
@@ -1923,11 +2043,16 @@
         <v>0.48098752582577436</v>
       </c>
       <c r="V35" s="10"/>
-      <c r="W35" s="15"/>
-      <c r="AC35" s="10"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="13"/>
       <c r="B36">
         <v>4</v>
       </c>
@@ -1945,7 +2070,7 @@
         <v>9.8152941881535075E-2</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="P36" s="15"/>
+      <c r="P36" s="13"/>
       <c r="Q36">
         <v>4</v>
       </c>
@@ -1963,11 +2088,16 @@
         <v>0.42792756396380915</v>
       </c>
       <c r="V36" s="10"/>
-      <c r="W36" s="15"/>
-      <c r="AC36" s="10"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="13"/>
       <c r="B37">
         <v>5</v>
       </c>
@@ -1985,7 +2115,7 @@
         <v>0.12628143173087639</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="P37" s="15"/>
+      <c r="P37" s="13"/>
       <c r="Q37">
         <v>5</v>
       </c>
@@ -2003,12 +2133,17 @@
         <v>0.41753184309702657</v>
       </c>
       <c r="V37" s="10"/>
-      <c r="W37" s="15"/>
-      <c r="AC37" s="10"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39">
@@ -2027,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39">
@@ -2094,7 +2229,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2103,7 +2238,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -2112,7 +2247,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="P44" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -2123,71 +2258,71 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
+      <c r="H45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="s">
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="L45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
+      <c r="M45" t="s">
         <v>5</v>
       </c>
-      <c r="F45" t="s">
+      <c r="N45" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45" t="s">
         <v>6</v>
       </c>
-      <c r="G45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="R45" t="s">
+        <v>2</v>
+      </c>
+      <c r="S45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" t="s">
         <v>8</v>
       </c>
-      <c r="I45" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" t="s">
-        <v>6</v>
-      </c>
-      <c r="N45" t="s">
-        <v>9</v>
-      </c>
-      <c r="P45" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>7</v>
-      </c>
-      <c r="R45" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" t="s">
-        <v>6</v>
-      </c>
-      <c r="V45" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="14">
         <v>3</v>
       </c>
       <c r="B46">
@@ -2210,7 +2345,7 @@
         <f>AVERAGE(F46:F50)</f>
         <v>4.1073689643696724E-2</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="14">
         <v>3</v>
       </c>
       <c r="I46">
@@ -2233,7 +2368,7 @@
         <f>AVERAGE(M46:M50)</f>
         <v>0.194299349068079</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="14">
         <v>3</v>
       </c>
       <c r="Q46">
@@ -2258,7 +2393,7 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="14"/>
       <c r="B47">
         <v>2</v>
       </c>
@@ -2276,7 +2411,7 @@
         <v>6.3537390566500276E-2</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="14"/>
       <c r="I47">
         <v>2</v>
       </c>
@@ -2294,7 +2429,7 @@
         <v>0.13074020039758236</v>
       </c>
       <c r="N47" s="10"/>
-      <c r="P47" s="11"/>
+      <c r="P47" s="14"/>
       <c r="Q47">
         <v>2</v>
       </c>
@@ -2314,7 +2449,7 @@
       <c r="V47" s="10"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="14"/>
       <c r="B48">
         <v>3</v>
       </c>
@@ -2332,7 +2467,7 @@
         <v>2.3600847442411914E-2</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="14"/>
       <c r="I48">
         <v>3</v>
       </c>
@@ -2350,7 +2485,7 @@
         <v>0.43537799668793548</v>
       </c>
       <c r="N48" s="10"/>
-      <c r="P48" s="11"/>
+      <c r="P48" s="14"/>
       <c r="Q48">
         <v>3</v>
       </c>
@@ -2370,7 +2505,7 @@
       <c r="V48" s="10"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="14"/>
       <c r="B49">
         <v>4</v>
       </c>
@@ -2388,7 +2523,7 @@
         <v>4.6669047558312103E-2</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="14"/>
       <c r="I49">
         <v>4</v>
       </c>
@@ -2406,7 +2541,7 @@
         <v>0.14142135623730953</v>
       </c>
       <c r="N49" s="10"/>
-      <c r="P49" s="11"/>
+      <c r="P49" s="14"/>
       <c r="Q49">
         <v>4</v>
       </c>
@@ -2426,7 +2561,7 @@
       <c r="V49" s="10"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="A50" s="14"/>
       <c r="B50">
         <v>5</v>
       </c>
@@ -2444,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="14"/>
       <c r="I50">
         <v>5</v>
       </c>
@@ -2462,7 +2597,7 @@
         <v>6.0605280298006985E-2</v>
       </c>
       <c r="N50" s="10"/>
-      <c r="P50" s="11"/>
+      <c r="P50" s="14"/>
       <c r="Q50">
         <v>5</v>
       </c>
@@ -2482,7 +2617,7 @@
       <c r="V50" s="10"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="15">
         <v>1</v>
       </c>
       <c r="B51">
@@ -2505,7 +2640,7 @@
         <f>AVERAGE(F51:F55)</f>
         <v>6.294142484670795E-2</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="15">
         <v>1</v>
       </c>
       <c r="I51">
@@ -2528,7 +2663,7 @@
         <f>AVERAGE(M51:M55)</f>
         <v>0.16271385162467747</v>
       </c>
-      <c r="P51" s="12">
+      <c r="P51" s="15">
         <v>1</v>
       </c>
       <c r="Q51">
@@ -2553,7 +2688,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="15"/>
       <c r="B52">
         <v>2</v>
       </c>
@@ -2571,7 +2706,7 @@
         <v>7.3986485252375694E-2</v>
       </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="12"/>
+      <c r="H52" s="15"/>
       <c r="I52">
         <v>2</v>
       </c>
@@ -2589,7 +2724,7 @@
         <v>0.15763882770434451</v>
       </c>
       <c r="N52" s="10"/>
-      <c r="P52" s="12"/>
+      <c r="P52" s="15"/>
       <c r="Q52">
         <v>2</v>
       </c>
@@ -2609,7 +2744,7 @@
       <c r="V52" s="10"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="15"/>
       <c r="B53">
         <v>3</v>
       </c>
@@ -2627,7 +2762,7 @@
         <v>0.10265963179361201</v>
       </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="15"/>
       <c r="I53">
         <v>3</v>
       </c>
@@ -2645,7 +2780,7 @@
         <v>0.25798643375185448</v>
       </c>
       <c r="N53" s="10"/>
-      <c r="P53" s="12"/>
+      <c r="P53" s="15"/>
       <c r="Q53">
         <v>3</v>
       </c>
@@ -2665,7 +2800,7 @@
       <c r="V53" s="10"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="15"/>
       <c r="B54">
         <v>4</v>
       </c>
@@ -2683,7 +2818,7 @@
         <v>7.1909665553387153E-2</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="15"/>
       <c r="I54">
         <v>4</v>
       </c>
@@ -2701,7 +2836,7 @@
         <v>0.21628222303277719</v>
       </c>
       <c r="N54" s="10"/>
-      <c r="P54" s="12"/>
+      <c r="P54" s="15"/>
       <c r="Q54">
         <v>4</v>
       </c>
@@ -2721,7 +2856,7 @@
       <c r="V54" s="10"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="15"/>
       <c r="B55">
         <v>5</v>
       </c>
@@ -2739,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="12"/>
+      <c r="H55" s="15"/>
       <c r="I55">
         <v>5</v>
       </c>
@@ -2757,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="10"/>
-      <c r="P55" s="12"/>
+      <c r="P55" s="15"/>
       <c r="Q55">
         <v>5</v>
       </c>
@@ -2777,7 +2912,7 @@
       <c r="V55" s="10"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="A56" s="11">
         <v>2</v>
       </c>
       <c r="B56">
@@ -2800,7 +2935,7 @@
         <f>AVERAGE(F56:F60)</f>
         <v>4.3894180623038417E-2</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="11">
         <v>2</v>
       </c>
       <c r="I56">
@@ -2823,7 +2958,7 @@
         <f>AVERAGE(M56:M60)</f>
         <v>0.16631137383523314</v>
       </c>
-      <c r="P56" s="13">
+      <c r="P56" s="11">
         <v>2</v>
       </c>
       <c r="Q56">
@@ -2848,7 +2983,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="11"/>
       <c r="B57">
         <v>2</v>
       </c>
@@ -2866,7 +3001,7 @@
         <v>4.415880433163924E-2</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="13"/>
+      <c r="H57" s="11"/>
       <c r="I57">
         <v>2</v>
       </c>
@@ -2884,7 +3019,7 @@
         <v>0.30020493000615439</v>
       </c>
       <c r="N57" s="10"/>
-      <c r="P57" s="13"/>
+      <c r="P57" s="11"/>
       <c r="Q57">
         <v>2</v>
       </c>
@@ -2904,7 +3039,7 @@
       <c r="V57" s="10"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="11"/>
       <c r="B58">
         <v>3</v>
       </c>
@@ -2922,7 +3057,7 @@
         <v>2.5980762113533156E-2</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="13"/>
+      <c r="H58" s="11"/>
       <c r="I58">
         <v>3</v>
       </c>
@@ -2940,7 +3075,7 @@
         <v>7.7168646482881895E-2</v>
       </c>
       <c r="N58" s="10"/>
-      <c r="P58" s="13"/>
+      <c r="P58" s="11"/>
       <c r="Q58">
         <v>3</v>
       </c>
@@ -2960,7 +3095,7 @@
       <c r="V58" s="10"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="11"/>
       <c r="B59">
         <v>4</v>
       </c>
@@ -2978,7 +3113,7 @@
         <v>8.0833161511844845E-2</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="13"/>
+      <c r="H59" s="11"/>
       <c r="I59">
         <v>4</v>
       </c>
@@ -2996,7 +3131,7 @@
         <v>0.24494897427831777</v>
       </c>
       <c r="N59" s="10"/>
-      <c r="P59" s="13"/>
+      <c r="P59" s="11"/>
       <c r="Q59">
         <v>4</v>
       </c>
@@ -3016,7 +3151,7 @@
       <c r="V59" s="10"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="11"/>
       <c r="B60">
         <v>5</v>
       </c>
@@ -3034,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="13"/>
+      <c r="H60" s="11"/>
       <c r="I60">
         <v>5</v>
       </c>
@@ -3052,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="10"/>
-      <c r="P60" s="13"/>
+      <c r="P60" s="11"/>
       <c r="Q60">
         <v>5</v>
       </c>
@@ -3072,7 +3207,7 @@
       <c r="V60" s="10"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="12">
         <v>4</v>
       </c>
       <c r="B61">
@@ -3095,7 +3230,7 @@
         <f>AVERAGE(F61:F65)</f>
         <v>6.8475920350280897E-2</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="12">
         <v>4</v>
       </c>
       <c r="I61">
@@ -3118,7 +3253,7 @@
         <f>AVERAGE(M61:M65)</f>
         <v>0.19240957768254885</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P61" s="12">
         <v>4</v>
       </c>
       <c r="Q61">
@@ -3143,7 +3278,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62">
         <v>2</v>
       </c>
@@ -3161,7 +3296,7 @@
         <v>7.533259586659681E-2</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="14"/>
+      <c r="H62" s="12"/>
       <c r="I62">
         <v>2</v>
       </c>
@@ -3179,7 +3314,7 @@
         <v>0.13074020039758238</v>
       </c>
       <c r="N62" s="10"/>
-      <c r="P62" s="14"/>
+      <c r="P62" s="12"/>
       <c r="Q62">
         <v>2</v>
       </c>
@@ -3199,7 +3334,7 @@
       <c r="V62" s="10"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63">
         <v>3</v>
       </c>
@@ -3217,7 +3352,7 @@
         <v>0.12308127396155753</v>
       </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="14"/>
+      <c r="H63" s="12"/>
       <c r="I63">
         <v>3</v>
       </c>
@@ -3235,7 +3370,7 @@
         <v>0.43887811519828596</v>
       </c>
       <c r="N63" s="10"/>
-      <c r="P63" s="14"/>
+      <c r="P63" s="12"/>
       <c r="Q63">
         <v>3</v>
       </c>
@@ -3255,7 +3390,7 @@
       <c r="V63" s="10"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="12"/>
       <c r="B64">
         <v>4</v>
       </c>
@@ -3273,7 +3408,7 @@
         <v>4.895916665957472E-2</v>
       </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="14"/>
+      <c r="H64" s="12"/>
       <c r="I64">
         <v>4</v>
       </c>
@@ -3291,7 +3426,7 @@
         <v>0.18698128248570767</v>
       </c>
       <c r="N64" s="10"/>
-      <c r="P64" s="14"/>
+      <c r="P64" s="12"/>
       <c r="Q64">
         <v>4</v>
       </c>
@@ -3311,7 +3446,7 @@
       <c r="V64" s="10"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="12"/>
       <c r="B65">
         <v>5</v>
       </c>
@@ -3329,7 +3464,7 @@
         <v>2.5357444666212047E-2</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="14"/>
+      <c r="H65" s="12"/>
       <c r="I65">
         <v>5</v>
       </c>
@@ -3347,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="10"/>
-      <c r="P65" s="14"/>
+      <c r="P65" s="12"/>
       <c r="Q65">
         <v>5</v>
       </c>
@@ -3367,7 +3502,7 @@
       <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
+      <c r="A66" s="13">
         <v>5</v>
       </c>
       <c r="B66">
@@ -3390,7 +3525,7 @@
         <f>AVERAGE(F66:F70)</f>
         <v>0.12331480481971246</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="13">
         <v>5</v>
       </c>
       <c r="I66">
@@ -3413,7 +3548,7 @@
         <f>AVERAGE(M66:M70)</f>
         <v>0.18102175008675037</v>
       </c>
-      <c r="P66" s="15">
+      <c r="P66" s="13">
         <v>5</v>
       </c>
       <c r="Q66">
@@ -3438,7 +3573,7 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="13"/>
       <c r="B67">
         <v>2</v>
       </c>
@@ -3456,7 +3591,7 @@
         <v>7.0278019323256349E-2</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="15"/>
+      <c r="H67" s="13"/>
       <c r="I67">
         <v>2</v>
       </c>
@@ -3474,7 +3609,7 @@
         <v>0.2031304999255405</v>
       </c>
       <c r="N67" s="10"/>
-      <c r="P67" s="15"/>
+      <c r="P67" s="13"/>
       <c r="Q67">
         <v>2</v>
       </c>
@@ -3494,7 +3629,7 @@
       <c r="V67" s="10"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="A68" s="13"/>
       <c r="B68">
         <v>3</v>
       </c>
@@ -3512,7 +3647,7 @@
         <v>0.41978804175440732</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="15"/>
+      <c r="H68" s="13"/>
       <c r="I68">
         <v>3</v>
       </c>
@@ -3530,7 +3665,7 @@
         <v>0.33981465536377325</v>
       </c>
       <c r="N68" s="10"/>
-      <c r="P68" s="15"/>
+      <c r="P68" s="13"/>
       <c r="Q68">
         <v>3</v>
       </c>
@@ -3550,7 +3685,7 @@
       <c r="V68" s="10"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="13"/>
       <c r="B69">
         <v>4</v>
       </c>
@@ -3568,7 +3703,7 @@
         <v>4.6669047558312082E-2</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="15"/>
+      <c r="H69" s="13"/>
       <c r="I69">
         <v>4</v>
       </c>
@@ -3586,7 +3721,7 @@
         <v>0.14142135623730942</v>
       </c>
       <c r="N69" s="10"/>
-      <c r="P69" s="15"/>
+      <c r="P69" s="13"/>
       <c r="Q69">
         <v>4</v>
       </c>
@@ -3606,7 +3741,7 @@
       <c r="V69" s="10"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="A70" s="13"/>
       <c r="B70">
         <v>5</v>
       </c>
@@ -3624,7 +3759,7 @@
         <v>1.1180339887499068E-2</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="15"/>
+      <c r="H70" s="13"/>
       <c r="I70">
         <v>5</v>
       </c>
@@ -3642,7 +3777,7 @@
         <v>4.5825756949558439E-3</v>
       </c>
       <c r="N70" s="10"/>
-      <c r="P70" s="15"/>
+      <c r="P70" s="13"/>
       <c r="Q70">
         <v>5</v>
       </c>
@@ -3663,7 +3798,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72">
@@ -3682,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72">
@@ -3701,7 +3836,7 @@
         <v>5</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72">
@@ -3796,71 +3931,7 @@
       <c r="V78" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="W23:W27"/>
-    <mergeCell ref="AC23:AC27"/>
-    <mergeCell ref="W28:W32"/>
-    <mergeCell ref="AC28:AC32"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="V23:V27"/>
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="V28:V32"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="W33:W37"/>
-    <mergeCell ref="AC33:AC37"/>
-    <mergeCell ref="W11:AC11"/>
-    <mergeCell ref="W13:W17"/>
-    <mergeCell ref="AC13:AC17"/>
-    <mergeCell ref="W18:W22"/>
-    <mergeCell ref="AC18:AC22"/>
-    <mergeCell ref="P33:P37"/>
-    <mergeCell ref="V33:V37"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="V13:V17"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="V18:V22"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="G66:G70"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="N46:N50"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="N51:N55"/>
-    <mergeCell ref="V56:V60"/>
-    <mergeCell ref="P61:P65"/>
-    <mergeCell ref="V61:V65"/>
-    <mergeCell ref="P66:P70"/>
-    <mergeCell ref="V66:V70"/>
-    <mergeCell ref="P56:P60"/>
+  <mergeCells count="69">
     <mergeCell ref="A39:B40"/>
     <mergeCell ref="P39:Q40"/>
     <mergeCell ref="A72:B73"/>
@@ -3877,6 +3948,59 @@
     <mergeCell ref="N61:N65"/>
     <mergeCell ref="H66:H70"/>
     <mergeCell ref="N66:N70"/>
+    <mergeCell ref="V56:V60"/>
+    <mergeCell ref="P61:P65"/>
+    <mergeCell ref="V61:V65"/>
+    <mergeCell ref="P66:P70"/>
+    <mergeCell ref="V66:V70"/>
+    <mergeCell ref="P56:P60"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="N46:N50"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="N51:N55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="G66:G70"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="P33:P37"/>
+    <mergeCell ref="V33:V37"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="V13:V17"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="V18:V22"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="V23:V27"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="V28:V32"/>
+    <mergeCell ref="P10:V10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3887,7 +4011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FD4A5E-FD6C-4E98-8448-C8ABD87E9865}">
   <dimension ref="A3:L146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="O145" sqref="O145"/>
     </sheetView>
   </sheetViews>
@@ -3895,7 +4019,7 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3903,7 +4027,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3941,7 +4065,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <f>(B4^2+B5^2+B6^2)^(1/2)</f>
@@ -3991,7 +4115,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <f>B$4*B8+B$5*B9+B$6*B10</f>
@@ -4018,7 +4142,7 @@
         <v>-0.65700000000000003</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <f>F9/B11</f>
@@ -4035,7 +4159,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <f>(B8^2+B9^2+B10^2)^(1/2)</f>
@@ -4050,7 +4174,7 @@
         <v>0.99996249929684866</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <f>ACOS(F10)*180/PI()</f>
@@ -4065,7 +4189,7 @@
         <v>48.92665233210834</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <f>ABS(F11-J$7)</f>
@@ -4106,7 +4230,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <f>B$4*B12+B$5*B13+B$6*B14</f>
@@ -4133,7 +4257,7 @@
         <v>-0.58499999999999996</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <f>F13/B15</f>
@@ -4150,7 +4274,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <f>(B12^2+B13^2+B14^2)^(1/2)</f>
@@ -4165,7 +4289,7 @@
         <v>0.99982948546239625</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <f>ACOS(F14)*180/PI()</f>
@@ -4180,7 +4304,7 @@
         <v>54.189961523213142</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15">
         <f>ABS(F15-J$7)</f>
@@ -4221,7 +4345,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17">
         <f>B$4*B16+B$5*B17+B$6*B18</f>
@@ -4248,7 +4372,7 @@
         <v>-0.57199999999999995</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <f>F17/B19</f>
@@ -4265,7 +4389,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <f>(B16^2+B17^2+B18^2)^(1/2)</f>
@@ -4280,7 +4404,7 @@
         <v>0.9997999799959989</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <f>ACOS(F18)*180/PI()</f>
@@ -4295,7 +4419,7 @@
         <v>55.102196305973045</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19">
         <f>ABS(F19-J$7)</f>
@@ -4336,7 +4460,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <f>B$4*B20+B$5*B21+B$6*B22</f>
@@ -4363,7 +4487,7 @@
         <v>-0.51300000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <f>F21/B23</f>
@@ -4380,7 +4504,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <f>(B20^2+B21^2+B22^2)^(1/2)</f>
@@ -4395,7 +4519,7 @@
         <v>1.0001784840717181</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <f>ACOS(F22)*180/PI()</f>
@@ -4410,7 +4534,7 @@
         <v>59.142244663221227</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23">
         <f>ABS(F23-J$7)</f>
@@ -4451,7 +4575,7 @@
         <v>0.03</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25">
         <f>B$4*B24+B$5*B25+B$6*B26</f>
@@ -4478,7 +4602,7 @@
         <v>-0.52200000000000002</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26">
         <f>F25/B27</f>
@@ -4495,7 +4619,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <f>(B24^2+B25^2+B26^2)^(1/2)</f>
@@ -4510,7 +4634,7 @@
         <v>0.99964393660943096</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <f>ACOS(F26)*180/PI()</f>
@@ -4525,7 +4649,7 @@
         <v>58.52100600563714</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <f>ABS(F27-J$7)</f>
@@ -4542,7 +4666,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29">
         <f>AVERAGE(J11,J15,J19,J23,J27)</f>
@@ -4559,7 +4683,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30">
         <f>_xlfn.STDEV.S(J11,J15,J19,J23,J27)</f>
@@ -4576,7 +4700,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -4584,7 +4708,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4622,7 +4746,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <f>(B33^2+B34^2+B35^2)^(1/2)</f>
@@ -4672,7 +4796,7 @@
         <v>0.113</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38">
         <f>B$4*B37+B$5*B38+B$6*B39</f>
@@ -4699,7 +4823,7 @@
         <v>-6.3E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <f>F38/B40</f>
@@ -4716,7 +4840,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <f>(B37^2+B38^2+B39^2)^(1/2)</f>
@@ -4731,7 +4855,7 @@
         <v>1.0004009196317245</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <f>ACOS(F39)*180/PI()</f>
@@ -4746,7 +4870,7 @@
         <v>86.389423314319075</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40">
         <f>ABS(F40-J$36)</f>
@@ -4787,7 +4911,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42">
         <f>B$4*B41+B$5*B42+B$6*B43</f>
@@ -4814,7 +4938,7 @@
         <v>-0.16600000000000001</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43">
         <f>F42/B44</f>
@@ -4831,7 +4955,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <f>(B41^2+B42^2+B43^2)^(1/2)</f>
@@ -4846,7 +4970,7 @@
         <v>0.99985899005809808</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <f>ACOS(F43)*180/PI()</f>
@@ -4861,7 +4985,7 @@
         <v>80.443308356677363</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44">
         <f>ABS(F44-J$36)</f>
@@ -4902,7 +5026,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46">
         <f>B$4*B45+B$5*B46+B$6*B47</f>
@@ -4929,7 +5053,7 @@
         <v>-0.29799999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47">
         <f>F46/B48</f>
@@ -4946,7 +5070,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <f>(B45^2+B46^2+B47^2)^(1/2)</f>
@@ -4961,7 +5085,7 @@
         <v>0.99985198904637873</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <f>ACOS(F47)*180/PI()</f>
@@ -4976,7 +5100,7 @@
         <v>72.659834127041805</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48">
         <f>ABS(F48-J$36)</f>
@@ -5017,7 +5141,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50">
         <f>B$4*B49+B$5*B50+B$6*B51</f>
@@ -5044,7 +5168,7 @@
         <v>-0.161</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F51">
         <f>F50/B52</f>
@@ -5061,7 +5185,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <f>(B49^2+B50^2+B51^2)^(1/2)</f>
@@ -5076,7 +5200,7 @@
         <v>1.0002104778495375</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <f>ACOS(F51)*180/PI()</f>
@@ -5091,7 +5215,7 @@
         <v>80.737022271322274</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52">
         <f>ABS(F52-J$36)</f>
@@ -5132,7 +5256,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54">
         <f>B$4*B53+B$5*B54+B$6*B55</f>
@@ -5159,7 +5283,7 @@
         <v>-0.40400000000000003</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55">
         <f>F54/B56</f>
@@ -5176,7 +5300,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56">
         <f>(B53^2+B54^2+B55^2)^(1/2)</f>
@@ -5191,7 +5315,7 @@
         <v>1.0005328580311594</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56">
         <f>ACOS(F55)*180/PI()</f>
@@ -5206,7 +5330,7 @@
         <v>66.184998646986003</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56">
         <f>ABS(F56-J$36)</f>
@@ -5223,7 +5347,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J58">
         <f>AVERAGE(J40,J44,J48,J52,J56)</f>
@@ -5240,7 +5364,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J59">
         <f>_xlfn.STDEV.S(J40,J44,J48,J52,J56)</f>
@@ -5257,7 +5381,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -5265,7 +5389,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5303,7 +5427,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65">
         <f>(B62^2+B63^2+B64^2)^(1/2)</f>
@@ -5353,7 +5477,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67">
         <f>B$4*B66+B$5*B67+B$6*B68</f>
@@ -5380,7 +5504,7 @@
         <v>-0.51100000000000001</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68">
         <f>F67/B69</f>
@@ -5397,7 +5521,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69">
         <f>(B66^2+B67^2+B68^2)^(1/2)</f>
@@ -5412,7 +5536,7 @@
         <v>1.0000204997898794</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <f>ACOS(F68)*180/PI()</f>
@@ -5427,7 +5551,7 @@
         <v>59.270236004458084</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69">
         <f>ABS(F69-J$65)</f>
@@ -5468,7 +5592,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71">
         <f>B$4*B70+B$5*B71+B$6*B72</f>
@@ -5495,7 +5619,7 @@
         <v>-0.36699999999999999</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F72">
         <f>F71/B73</f>
@@ -5512,7 +5636,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73">
         <f>(B70^2+B71^2+B72^2)^(1/2)</f>
@@ -5527,7 +5651,7 @@
         <v>1.0003589355826237</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73">
         <f>ACOS(F72)*180/PI()</f>
@@ -5542,7 +5666,7 @@
         <v>68.477392504859026</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J73">
         <f>ABS(F73-J$65)</f>
@@ -5583,7 +5707,7 @@
         <v>0.113</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75">
         <f>B$4*B74+B$5*B75+B$6*B76</f>
@@ -5610,7 +5734,7 @@
         <v>-0.42199999999999999</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76">
         <f>F75/B77</f>
@@ -5627,7 +5751,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <f>(B74^2+B75^2+B76^2)^(1/2)</f>
@@ -5642,7 +5766,7 @@
         <v>0.99952688808255685</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77">
         <f>ACOS(F76)*180/PI()</f>
@@ -5657,7 +5781,7 @@
         <v>65.026455147338496</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77">
         <f>ABS(F77-J$65)</f>
@@ -5698,7 +5822,7 @@
         <v>0.12</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F79">
         <f>B$4*B78+B$5*B79+B$6*B80</f>
@@ -5725,7 +5849,7 @@
         <v>-0.53100000000000003</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80">
         <f>F79/B81</f>
@@ -5742,7 +5866,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <f>(B78^2+B79^2+B80^2)^(1/2)</f>
@@ -5757,7 +5881,7 @@
         <v>1.0001409900609013</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81">
         <f>ACOS(F80)*180/PI()</f>
@@ -5772,7 +5896,7 @@
         <v>57.932015530362008</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81">
         <f>ABS(F81-J$65)</f>
@@ -5813,7 +5937,7 @@
         <v>0.112</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F83">
         <f>B$4*B82+B$5*B83+B$6*B84</f>
@@ -5840,7 +5964,7 @@
         <v>-0.54700000000000004</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F84">
         <f>F83/B85</f>
@@ -5857,7 +5981,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85">
         <f>(B82^2+B83^2+B84^2)^(1/2)</f>
@@ -5872,7 +5996,7 @@
         <v>0.99949687343182814</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <f>ACOS(F84)*180/PI()</f>
@@ -5887,7 +6011,7 @@
         <v>56.819709433802409</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85">
         <f>ABS(F85-J$65)</f>
@@ -5904,7 +6028,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J87">
         <f>AVERAGE(J69,J73,J77,J81,J85)</f>
@@ -5921,7 +6045,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J88">
         <f>_xlfn.STDEV.S(J69,J73,J77,J81,J85)</f>
@@ -5938,7 +6062,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -5946,7 +6070,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5984,7 +6108,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94">
         <f>(B91^2+B92^2+B93^2)^(1/2)</f>
@@ -6034,7 +6158,7 @@
         <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F96">
         <f>B$4*B95+B$5*B96+B$6*B97</f>
@@ -6061,7 +6185,7 @@
         <v>-0.91400000000000003</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F97">
         <f>F96/B98</f>
@@ -6078,7 +6202,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98">
         <f>(B95^2+B96^2+B97^2)^(1/2)</f>
@@ -6093,7 +6217,7 @@
         <v>1.0002029793996816</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F98">
         <f>ACOS(F97)*180/PI()</f>
@@ -6108,7 +6232,7 @@
         <v>23.962070564192885</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J98">
         <f>ABS(F98-J$94)</f>
@@ -6149,7 +6273,7 @@
         <v>0.02</v>
       </c>
       <c r="E100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F100">
         <f>B$4*B99+B$5*B100+B$6*B101</f>
@@ -6176,7 +6300,7 @@
         <v>-0.73</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F101">
         <f>F100/B102</f>
@@ -6193,7 +6317,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102">
         <f>(B99^2+B100^2+B101^2)^(1/2)</f>
@@ -6208,7 +6332,7 @@
         <v>0.99989449443428779</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F102">
         <f>ACOS(F101)*180/PI()</f>
@@ -6223,7 +6347,7 @@
         <v>43.107148096750862</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J102">
         <f>ABS(F102-J$94)</f>
@@ -6264,7 +6388,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F104">
         <f>B$4*B103+B$5*B104+B$6*B105</f>
@@ -6291,7 +6415,7 @@
         <v>-0.94599999999999995</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F105">
         <f>F104/B106</f>
@@ -6308,7 +6432,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106">
         <f>(B103^2+B104^2+B105^2)^(1/2)</f>
@@ -6323,7 +6447,7 @@
         <v>1.0002584665975089</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F106">
         <f>ACOS(F105)*180/PI()</f>
@@ -6338,7 +6462,7 @@
         <v>18.958250730400952</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J106">
         <f>ABS(F106-J$94)</f>
@@ -6379,7 +6503,7 @@
         <v>-0.113</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F108">
         <f>B$4*B107+B$5*B108+B$6*B109</f>
@@ -6406,7 +6530,7 @@
         <v>-0.97199999999999998</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F109">
         <f>F108/B110</f>
@@ -6423,7 +6547,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B110">
         <f>(B107^2+B108^2+B109^2)^(1/2)</f>
@@ -6438,7 +6562,7 @@
         <v>1.0008261587308755</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F110">
         <f>ACOS(F109)*180/PI()</f>
@@ -6453,7 +6577,7 @@
         <v>13.784773475838755</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110">
         <f>ABS(F110-J$94)</f>
@@ -6494,7 +6618,7 @@
         <v>-8.8999999999999996E-2</v>
       </c>
       <c r="E112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F112">
         <f>B$4*B111+B$5*B112+B$6*B113</f>
@@ -6521,7 +6645,7 @@
         <v>-0.97399999999999998</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F113">
         <f>F112/B114</f>
@@ -6538,7 +6662,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <f>(B111^2+B112^2+B113^2)^(1/2)</f>
@@ -6553,7 +6677,7 @@
         <v>0.99972296162486929</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F114">
         <f>ACOS(F113)*180/PI()</f>
@@ -6568,7 +6692,7 @@
         <v>13.025485167455786</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J114">
         <f>ABS(F114-J$94)</f>
@@ -6585,7 +6709,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J116">
         <f>AVERAGE(J98,J102,J106,J110,J114)</f>
@@ -6602,7 +6726,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J117">
         <f>_xlfn.STDEV.S(J98,J102,J106,J110,J114)</f>
@@ -6619,7 +6743,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -6627,7 +6751,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6665,7 +6789,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B123">
         <f>(B120^2+B121^2+B122^2)^(1/2)</f>
@@ -6715,7 +6839,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F125">
         <f>B$4*B124+B$5*B125+B$6*B126</f>
@@ -6742,7 +6866,7 @@
         <v>-1</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F126">
         <f>F125/B127</f>
@@ -6759,7 +6883,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B127">
         <f>(B124^2+B125^2+B126^2)^(1/2)</f>
@@ -6774,7 +6898,7 @@
         <v>1.0006008195079594</v>
       </c>
       <c r="E127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127">
         <f>ACOS(F126)*180/PI()</f>
@@ -6789,7 +6913,7 @@
         <v>1.9856419959072091</v>
       </c>
       <c r="I127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J127">
         <f>ABS(F127-J$123)</f>
@@ -6830,7 +6954,7 @@
         <v>1E-3</v>
       </c>
       <c r="E129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F129">
         <f>B$4*B128+B$5*B129+B$6*B130</f>
@@ -6857,7 +6981,7 @@
         <v>-1</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F130">
         <f>F129/B131</f>
@@ -6874,7 +6998,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131">
         <f>(B128^2+B129^2+B130^2)^(1/2)</f>
@@ -6889,7 +7013,7 @@
         <v>1.0000049999875</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F131">
         <f>ACOS(F130)*180/PI()</f>
@@ -6904,7 +7028,7 @@
         <v>0.18118455962812643</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J131">
         <f>ABS(F131-J$94)</f>
@@ -6945,7 +7069,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133">
         <f>B$4*B132+B$5*B133+B$6*B134</f>
@@ -6972,7 +7096,7 @@
         <v>-0.98899999999999999</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F134">
         <f>F133/B135</f>
@@ -6989,7 +7113,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B135">
         <f>(B132^2+B133^2+B134^2)^(1/2)</f>
@@ -7004,7 +7128,7 @@
         <v>0.99987299193447565</v>
       </c>
       <c r="E135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F135">
         <f>ACOS(F134)*180/PI()</f>
@@ -7019,7 +7143,7 @@
         <v>8.4573457970841712</v>
       </c>
       <c r="I135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J135">
         <f>ABS(F135-J$94)</f>
@@ -7060,7 +7184,7 @@
         <v>-0.129</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F137">
         <f>B$4*B136+B$5*B137+B$6*B138</f>
@@ -7087,7 +7211,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F138">
         <f>F137/B139</f>
@@ -7104,7 +7228,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B139">
         <f>(B136^2+B137^2+B138^2)^(1/2)</f>
@@ -7119,7 +7243,7 @@
         <v>0.99984148743688361</v>
       </c>
       <c r="E139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F139">
         <f>ACOS(F138)*180/PI()</f>
@@ -7134,7 +7258,7 @@
         <v>7.6252708693145959</v>
       </c>
       <c r="I139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J139">
         <f>ABS(F139-J$94)</f>
@@ -7175,7 +7299,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F141">
         <f>B$4*B140+B$5*B141+B$6*B142</f>
@@ -7202,7 +7326,7 @@
         <v>-0.96399999999999997</v>
       </c>
       <c r="E142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F142">
         <f>F141/B143</f>
@@ -7219,7 +7343,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B143">
         <f>(B140^2+B141^2+B142^2)^(1/2)</f>
@@ -7234,7 +7358,7 @@
         <v>0.99979997999599901</v>
       </c>
       <c r="E143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F143">
         <f>ACOS(F142)*180/PI()</f>
@@ -7249,7 +7373,7 @@
         <v>15.378959603109287</v>
       </c>
       <c r="I143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J143">
         <f>ABS(F143-J$94)</f>
@@ -7266,7 +7390,7 @@
     </row>
     <row r="145" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J145">
         <f>AVERAGE(J127,J131,J135,J139,J143)</f>
@@ -7283,7 +7407,7 @@
     </row>
     <row r="146" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J146">
         <f>_xlfn.STDEV.S(J127,J131,J135,J139,J143)</f>
@@ -7300,28 +7424,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A95:A97"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A49:A51"/>
@@ -7335,6 +7437,28 @@
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A124:A126"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7345,7 +7469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB130B4-6025-4D6C-9CD3-509EC152E76B}">
   <dimension ref="A3:Q146"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
@@ -7353,7 +7477,7 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -7361,7 +7485,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7399,7 +7523,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <f>(B4^2+B5^2+B6^2)^(1/2)</f>
@@ -7449,7 +7573,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <f>B$4*B8+B$5*B9+B$6*B10</f>
@@ -7476,7 +7600,7 @@
         <v>-0.96299999999999997</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <f>F9/B11</f>
@@ -7493,7 +7617,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <f>(B8^2+B9^2+B10^2)^(1/2)</f>
@@ -7508,7 +7632,7 @@
         <v>0.99936930110945466</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <f>ACOS(F10)*180/PI()</f>
@@ -7523,7 +7647,7 @@
         <v>15.50486759690869</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <f>ABS(F11-J$7)</f>
@@ -7564,7 +7688,7 @@
         <v>-0.01</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <f>B$4*B12+B$5*B13+B$6*B14</f>
@@ -7591,7 +7715,7 @@
         <v>-0.96399999999999997</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <f>F13/B15</f>
@@ -7608,7 +7732,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <f>(B12^2+B13^2+B14^2)^(1/2)</f>
@@ -7623,7 +7747,7 @@
         <v>1.0000759971122195</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <f>ACOS(F14)*180/PI()</f>
@@ -7638,7 +7762,7 @@
         <v>15.436347815445052</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15">
         <f>ABS(F15-J$7)</f>
@@ -7679,7 +7803,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17">
         <f>B$4*B16+B$5*B17+B$6*B18</f>
@@ -7706,7 +7830,7 @@
         <v>-0.96299999999999997</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <f>F17/B19</f>
@@ -7723,7 +7847,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <f>(B16^2+B17^2+B18^2)^(1/2)</f>
@@ -7738,7 +7862,7 @@
         <v>1.0001949809912065</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <f>ACOS(F18)*180/PI()</f>
@@ -7753,7 +7877,7 @@
         <v>15.674460623004133</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19">
         <f>ABS(F19-J$7)</f>
@@ -7794,7 +7918,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <f>B$4*B20+B$5*B21+B$6*B22</f>
@@ -7821,7 +7945,7 @@
         <v>-0.96299999999999997</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <f>F21/B23</f>
@@ -7838,7 +7962,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <f>(B20^2+B21^2+B22^2)^(1/2)</f>
@@ -7853,7 +7977,7 @@
         <v>1.0001589873615093</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <f>ACOS(F22)*180/PI()</f>
@@ -7868,7 +7992,7 @@
         <v>15.667110731711631</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23">
         <f>ABS(F23-J$7)</f>
@@ -7909,7 +8033,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25">
         <f>B$4*B24+B$5*B25+B$6*B26</f>
@@ -7936,7 +8060,7 @@
         <v>-0.96299999999999997</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26">
         <f>F25/B27</f>
@@ -7953,7 +8077,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <f>(B24^2+B25^2+B26^2)^(1/2)</f>
@@ -7968,7 +8092,7 @@
         <v>0.99988299315469908</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <f>ACOS(F26)*180/PI()</f>
@@ -7983,7 +8107,7 @@
         <v>15.610623006319271</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <f>ABS(F27-J$7)</f>
@@ -8000,7 +8124,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29">
         <f>AVERAGE(J11,J15,J19,J23,J27)</f>
@@ -8017,7 +8141,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30">
         <f>_xlfn.STDEV.S(J11,J15,J19,J23,J27)</f>
@@ -8034,7 +8158,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -8042,7 +8166,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8080,7 +8204,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <f>(B33^2+B34^2+B35^2)^(1/2)</f>
@@ -8139,7 +8263,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38">
         <f>B$4*B37+B$5*B38+B$6*B39</f>
@@ -8175,7 +8299,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <f>F38/B40</f>
@@ -8201,7 +8325,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <f>(B37^2+B38^2+B39^2)^(1/2)</f>
@@ -8216,7 +8340,7 @@
         <v>0.99977047365882932</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <f>ACOS(F39)*180/PI()</f>
@@ -8231,7 +8355,7 @@
         <v>7.5948115115723125</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40">
         <f>ABS(F40-J$36)</f>
@@ -8272,7 +8396,7 @@
         <v>0.01</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42">
         <f>B$4*B41+B$5*B42+B$6*B43</f>
@@ -8299,7 +8423,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43">
         <f>F42/B44</f>
@@ -8316,7 +8440,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <f>(B41^2+B42^2+B43^2)^(1/2)</f>
@@ -8331,7 +8455,7 @@
         <v>1.000474887241054</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <f>ACOS(F43)*180/PI()</f>
@@ -8346,7 +8470,7 @@
         <v>7.8915970329349205</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44">
         <f>ABS(F44-J$36)</f>
@@ -8387,7 +8511,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46">
         <f>B$4*B45+B$5*B46+B$6*B47</f>
@@ -8414,7 +8538,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47">
         <f>F46/B48</f>
@@ -8431,7 +8555,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <f>(B45^2+B46^2+B47^2)^(1/2)</f>
@@ -8446,7 +8570,7 @@
         <v>0.99989749474633649</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <f>ACOS(F47)*180/PI()</f>
@@ -8461,7 +8585,7 @@
         <v>7.6492055414425346</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48">
         <f>ABS(F48-J$36)</f>
@@ -8502,7 +8626,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50">
         <f>B$4*B49+B$5*B50+B$6*B51</f>
@@ -8529,7 +8653,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F51">
         <f>F50/B52</f>
@@ -8546,7 +8670,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <f>(B49^2+B50^2+B51^2)^(1/2)</f>
@@ -8561,7 +8685,7 @@
         <v>1.0001654863071412</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <f>ACOS(F51)*180/PI()</f>
@@ -8576,7 +8700,7 @@
         <v>7.762679729372759</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52">
         <f>ABS(F52-J$36)</f>
@@ -8617,7 +8741,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54">
         <f>B$4*B53+B$5*B54+B$6*B55</f>
@@ -8644,7 +8768,7 @@
         <v>-0.99099999999999999</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55">
         <f>F54/B56</f>
@@ -8661,7 +8785,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56">
         <f>(B53^2+B54^2+B55^2)^(1/2)</f>
@@ -8676,7 +8800,7 @@
         <v>1.0000364993338993</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56">
         <f>ACOS(F55)*180/PI()</f>
@@ -8691,7 +8815,7 @@
         <v>7.7082783366165124</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56">
         <f>ABS(F56-J$36)</f>
@@ -8708,7 +8832,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J58">
         <f>AVERAGE(J40,J44,J48,J52,J56)</f>
@@ -8725,7 +8849,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J59">
         <f>_xlfn.STDEV.S(J40,J44,J48,J52,J56)</f>
@@ -8742,7 +8866,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -8750,7 +8874,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8788,7 +8912,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65">
         <f>(B62^2+B63^2+B64^2)^(1/2)</f>
@@ -8838,7 +8962,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67">
         <f>B$4*B66+B$5*B67+B$6*B68</f>
@@ -8865,7 +8989,7 @@
         <v>-0.78300000000000003</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68">
         <f>F67/B69</f>
@@ -8882,7 +9006,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69">
         <f>(B66^2+B67^2+B68^2)^(1/2)</f>
@@ -8897,7 +9021,7 @@
         <v>0.99975697046832335</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <f>ACOS(F68)*180/PI()</f>
@@ -8912,7 +9036,7 @@
         <v>38.446384904910424</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69">
         <f>ABS(F69-J$65)</f>
@@ -8953,7 +9077,7 @@
         <v>-2.7E-2</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71">
         <f>B$4*B70+B$5*B71+B$6*B72</f>
@@ -8980,7 +9104,7 @@
         <v>-0.84</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F72">
         <f>F71/B73</f>
@@ -8997,7 +9121,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73">
         <f>(B70^2+B71^2+B72^2)^(1/2)</f>
@@ -9012,7 +9136,7 @@
         <v>0.99950487742681871</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73">
         <f>ACOS(F72)*180/PI()</f>
@@ -9027,7 +9151,7 @@
         <v>32.815914181129557</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J73">
         <f>ABS(F73-J$65)</f>
@@ -9068,7 +9192,7 @@
         <v>-4.7E-2</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75">
         <f>B$4*B74+B$5*B75+B$6*B76</f>
@@ -9095,7 +9219,7 @@
         <v>-0.83899999999999997</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76">
         <f>F75/B77</f>
@@ -9112,7 +9236,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <f>(B74^2+B75^2+B76^2)^(1/2)</f>
@@ -9127,7 +9251,7 @@
         <v>0.99994699859542557</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77">
         <f>ACOS(F76)*180/PI()</f>
@@ -9142,7 +9266,7 @@
         <v>32.960644801006985</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77">
         <f>ABS(F77-J$65)</f>
@@ -9183,7 +9307,7 @@
         <v>-4.7E-2</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F79">
         <f>B$4*B78+B$5*B79+B$6*B80</f>
@@ -9210,7 +9334,7 @@
         <v>-0.84</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80">
         <f>F79/B81</f>
@@ -9227,7 +9351,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <f>(B78^2+B79^2+B80^2)^(1/2)</f>
@@ -9242,7 +9366,7 @@
         <v>0.99970445632696869</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81">
         <f>ACOS(F80)*180/PI()</f>
@@ -9257,7 +9381,7 @@
         <v>32.833648040205354</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81">
         <f>ABS(F81-J$65)</f>
@@ -9298,7 +9422,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F83">
         <f>B$4*B82+B$5*B83+B$6*B84</f>
@@ -9325,7 +9449,7 @@
         <v>-0.84099999999999997</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F84">
         <f>F83/B85</f>
@@ -9342,7 +9466,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85">
         <f>(B82^2+B83^2+B84^2)^(1/2)</f>
@@ -9357,7 +9481,7 @@
         <v>1.00016248679902</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <f>ACOS(F84)*180/PI()</f>
@@ -9372,7 +9496,7 @@
         <v>32.768597949987949</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85">
         <f>ABS(F85-J$65)</f>
@@ -9389,7 +9513,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J87">
         <f>AVERAGE(J69,J73,J77,J81,J85)</f>
@@ -9406,7 +9530,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J88">
         <f>_xlfn.STDEV.S(J69,J73,J77,J81,J85)</f>
@@ -9423,7 +9547,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -9431,7 +9555,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -9469,7 +9593,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94">
         <f>(B91^2+B92^2+B93^2)^(1/2)</f>
@@ -9519,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F96">
         <f>B$4*B95+B$5*B96+B$6*B97</f>
@@ -9546,7 +9670,7 @@
         <v>-0.996</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F97">
         <f>F96/B98</f>
@@ -9563,7 +9687,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98">
         <f>(B95^2+B96^2+B97^2)^(1/2)</f>
@@ -9578,7 +9702,7 @@
         <v>0.99996849950385935</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F98">
         <f>ACOS(F97)*180/PI()</f>
@@ -9593,7 +9717,7 @@
         <v>5.1062417205402957</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J98">
         <f>ABS(F98-J$94)</f>
@@ -9634,7 +9758,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F100">
         <f>B$4*B99+B$5*B100+B$6*B101</f>
@@ -9661,7 +9785,7 @@
         <v>-0.97599999999999998</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F101">
         <f>F100/B102</f>
@@ -9678,7 +9802,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102">
         <f>(B99^2+B100^2+B101^2)^(1/2)</f>
@@ -9693,7 +9817,7 @@
         <v>1.0000579983180975</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F102">
         <f>ACOS(F101)*180/PI()</f>
@@ -9708,7 +9832,7 @@
         <v>12.593002353465391</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J102">
         <f>ABS(F102-J$94)</f>
@@ -9749,7 +9873,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F104">
         <f>B$4*B103+B$5*B104+B$6*B105</f>
@@ -9776,7 +9900,7 @@
         <v>-0.97299999999999998</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F105">
         <f>F104/B106</f>
@@ -9793,7 +9917,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106">
         <f>(B103^2+B104^2+B105^2)^(1/2)</f>
@@ -9808,7 +9932,7 @@
         <v>0.99959291714177323</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F106">
         <f>ACOS(F105)*180/PI()</f>
@@ -9823,7 +9947,7 @@
         <v>13.245751033998765</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J106">
         <f>ABS(F106-J$94)</f>
@@ -9864,7 +9988,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F108">
         <f>B$4*B107+B$5*B108+B$6*B109</f>
@@ -9891,7 +10015,7 @@
         <v>-0.97499999999999998</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F109">
         <f>F108/B110</f>
@@ -9908,7 +10032,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B110">
         <f>(B107^2+B108^2+B109^2)^(1/2)</f>
@@ -9923,7 +10047,7 @@
         <v>1.0001894820482766</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F110">
         <f>ACOS(F109)*180/PI()</f>
@@ -9938,7 +10062,7 @@
         <v>12.886109288241849</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110">
         <f>ABS(F110-J$94)</f>
@@ -9979,7 +10103,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F112">
         <f>B$4*B111+B$5*B112+B$6*B113</f>
@@ -10006,7 +10130,7 @@
         <v>-0.98399999999999999</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F113">
         <f>F112/B114</f>
@@ -10023,7 +10147,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <f>(B111^2+B112^2+B113^2)^(1/2)</f>
@@ -10038,7 +10162,7 @@
         <v>0.99981048204147172</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F114">
         <f>ACOS(F113)*180/PI()</f>
@@ -10053,7 +10177,7 @@
         <v>10.20293966381977</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J114">
         <f>ABS(F114-J$94)</f>
@@ -10070,7 +10194,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J116">
         <f>AVERAGE(J98,J102,J106,J110,J114)</f>
@@ -10087,7 +10211,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J117">
         <f>_xlfn.STDEV.S(J98,J102,J106,J110,J114)</f>
@@ -10104,7 +10228,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -10112,7 +10236,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -10150,7 +10274,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B123">
         <f>(B120^2+B121^2+B122^2)^(1/2)</f>
@@ -10200,7 +10324,7 @@
         <v>-2.7E-2</v>
       </c>
       <c r="E125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F125">
         <f>B$4*B124+B$5*B125+B$6*B126</f>
@@ -10227,7 +10351,7 @@
         <v>-0.97899999999999998</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F126">
         <f>F125/B127</f>
@@ -10244,7 +10368,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B127">
         <f>(B124^2+B125^2+B126^2)^(1/2)</f>
@@ -10259,7 +10383,7 @@
         <v>1.0003929228058344</v>
       </c>
       <c r="E127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127">
         <f>ACOS(F126)*180/PI()</f>
@@ -10274,7 +10398,7 @@
         <v>11.870373131905424</v>
       </c>
       <c r="I127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J127">
         <f>ABS(F127-J$123)</f>
@@ -10315,7 +10439,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F129">
         <f>B$4*B128+B$5*B129+B$6*B130</f>
@@ -10342,7 +10466,7 @@
         <v>-0.99299999999999999</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F130">
         <f>F129/B131</f>
@@ -10359,7 +10483,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131">
         <f>(B128^2+B129^2+B130^2)^(1/2)</f>
@@ -10374,7 +10498,7 @@
         <v>1.0003694317600873</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F131">
         <f>ACOS(F130)*180/PI()</f>
@@ -10389,7 +10513,7 @@
         <v>6.9589128199137011</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J131">
         <f>ABS(F131-J$94)</f>
@@ -10430,7 +10554,7 @@
         <v>1E-3</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133">
         <f>B$4*B132+B$5*B133+B$6*B134</f>
@@ -10457,7 +10581,7 @@
         <v>-0.93</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F134">
         <f>F133/B135</f>
@@ -10474,7 +10598,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B135">
         <f>(B132^2+B133^2+B134^2)^(1/2)</f>
@@ -10489,7 +10613,7 @@
         <v>0.99979497898319136</v>
       </c>
       <c r="E135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F135">
         <f>ACOS(F134)*180/PI()</f>
@@ -10504,7 +10628,7 @@
         <v>21.535437499070778</v>
       </c>
       <c r="I135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J135">
         <f>ABS(F135-J$94)</f>
@@ -10545,7 +10669,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F137">
         <f>B$4*B136+B$5*B137+B$6*B138</f>
@@ -10572,7 +10696,7 @@
         <v>-0.92600000000000005</v>
       </c>
       <c r="E138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F138">
         <f>F137/B139</f>
@@ -10589,7 +10713,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B139">
         <f>(B136^2+B137^2+B138^2)^(1/2)</f>
@@ -10604,7 +10728,7 @@
         <v>1.0040144421272037</v>
       </c>
       <c r="E139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F139">
         <f>ACOS(F138)*180/PI()</f>
@@ -10619,7 +10743,7 @@
         <v>22.735695400151243</v>
       </c>
       <c r="I139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J139">
         <f>ABS(F139-J$94)</f>
@@ -10660,7 +10784,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F141">
         <f>B$4*B140+B$5*B141+B$6*B142</f>
@@ -10687,7 +10811,7 @@
         <v>-0.96899999999999997</v>
       </c>
       <c r="E142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F142">
         <f>F141/B143</f>
@@ -10704,7 +10828,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B143">
         <f>(B140^2+B141^2+B142^2)^(1/2)</f>
@@ -10719,7 +10843,7 @@
         <v>0.99953339113808493</v>
       </c>
       <c r="E143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F143">
         <f>ACOS(F142)*180/PI()</f>
@@ -10734,7 +10858,7 @@
         <v>14.198363730325871</v>
       </c>
       <c r="I143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J143">
         <f>ABS(F143-J$94)</f>
@@ -10751,7 +10875,7 @@
     </row>
     <row r="145" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J145">
         <f>AVERAGE(J127,J131,J135,J139,J143)</f>
@@ -10768,7 +10892,7 @@
     </row>
     <row r="146" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J146">
         <f>_xlfn.STDEV.S(J127,J131,J135,J139,J143)</f>
@@ -10785,11 +10909,24 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A66:A68"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A78:A80"/>
@@ -10802,24 +10939,11 @@
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="A111:A113"/>
     <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A140:A142"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -10828,10 +10952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA43B0C-044C-4262-9AA6-A186FF4E9ADA}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10840,38 +10964,41 @@
     <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7">
         <v>6.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1000</v>
       </c>
@@ -10893,11 +11020,15 @@
         <v>1366.1202185792349</v>
       </c>
       <c r="G4">
-        <f>$A$4/F4</f>
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>F4/2</f>
+        <v>683.06010928961746</v>
+      </c>
+      <c r="H4">
+        <f>$A$4/G4</f>
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5">
         <v>25</v>
@@ -10917,11 +11048,15 @@
         <v>321.44005143040823</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G6" si="2">$A$4/F5</f>
-        <v>3.1109999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G5:G19" si="2">F5/2</f>
+        <v>160.72002571520412</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="3">$A$4/G5</f>
+        <v>6.2219999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6">
         <v>77</v>
@@ -10942,10 +11077,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>1.403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356.37918745545261</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>2.806</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1500</v>
       </c>
@@ -10959,7 +11098,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" ref="E7:E10" si="3">(C7-B7)*$B$1</f>
+        <f t="shared" ref="E7:E10" si="4">(C7-B7)*$B$1</f>
         <v>1.952E-3</v>
       </c>
       <c r="F7">
@@ -10967,11 +11106,15 @@
         <v>512.29508196721315</v>
       </c>
       <c r="G7">
-        <f>$A$7/F7</f>
-        <v>2.9279999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>256.14754098360658</v>
+      </c>
+      <c r="H7">
+        <f>$A$7/G7</f>
+        <v>5.8559999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8">
         <v>44</v>
@@ -10983,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8909999999999999E-3</v>
       </c>
       <c r="F8">
@@ -10991,11 +11134,15 @@
         <v>528.82072977260714</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G9" si="4">$A$7/F8</f>
-        <v>2.8364999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>264.41036488630357</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H9" si="5">$A$7/G8</f>
+        <v>5.6729999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9">
         <v>76</v>
@@ -11007,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7079999999999999E-3</v>
       </c>
       <c r="F9">
@@ -11015,11 +11162,15 @@
         <v>585.48009367681505</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
-        <v>2.5619999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>292.74004683840752</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>5.1239999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2000</v>
       </c>
@@ -11033,7 +11184,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.647E-3</v>
       </c>
       <c r="F10">
@@ -11041,11 +11192,15 @@
         <v>607.16454159077114</v>
       </c>
       <c r="G10">
-        <f>$A$10/F10</f>
-        <v>3.2939999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>303.58227079538557</v>
+      </c>
+      <c r="H10">
+        <f>$A$10/G10</f>
+        <v>6.5879999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11">
         <f>C10+1</f>
@@ -11058,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" ref="E11:E12" si="5">(C11-B11)*$B$1</f>
+        <f t="shared" ref="E11:E12" si="6">(C11-B11)*$B$1</f>
         <v>1.3419999999999999E-3</v>
       </c>
       <c r="F11">
@@ -11066,14 +11221,18 @@
         <v>745.15648286140095</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G12" si="6">$A$10/F11</f>
-        <v>2.6839999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>372.57824143070047</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="7">$A$10/G11</f>
+        <v>5.3679999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12">
-        <f t="shared" ref="B12" si="7">C11+1</f>
+        <f t="shared" ref="B12" si="8">C11+1</f>
         <v>65</v>
       </c>
       <c r="C12">
@@ -11083,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.769E-3</v>
       </c>
       <c r="F12">
@@ -11091,11 +11250,15 @@
         <v>565.29112492933859</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
-        <v>3.5380000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>282.6455624646693</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>7.0760000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2500</v>
       </c>
@@ -11109,7 +11272,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" ref="E13:E17" si="8">(C13-B13)*$B$1</f>
+        <f t="shared" ref="E13:E17" si="9">(C13-B13)*$B$1</f>
         <v>1.83E-4</v>
       </c>
       <c r="F13">
@@ -11117,11 +11280,15 @@
         <v>5464.4808743169397</v>
       </c>
       <c r="G13">
-        <f>$A$13/F13</f>
-        <v>0.45750000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2732.2404371584698</v>
+      </c>
+      <c r="H13">
+        <f>$A$13/G13</f>
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14">
         <f>C13+1</f>
@@ -11134,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.281E-3</v>
       </c>
       <c r="F14">
@@ -11142,14 +11309,18 @@
         <v>780.64012490241998</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G17" si="9">$A$13/F14</f>
-        <v>3.2025000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>390.32006245120999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="10">$A$13/G14</f>
+        <v>6.4050000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15">
-        <f t="shared" ref="B15:B17" si="10">C14+1</f>
+        <f t="shared" ref="B15:B17" si="11">C14+1</f>
         <v>47</v>
       </c>
       <c r="C15">
@@ -11159,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.403E-3</v>
       </c>
       <c r="F15">
@@ -11167,14 +11338,18 @@
         <v>712.75837491090522</v>
       </c>
       <c r="G15">
-        <f t="shared" si="9"/>
-        <v>3.5074999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>356.37918745545261</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="10"/>
+        <v>7.0149999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="C16">
@@ -11184,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0369999999999999E-3</v>
       </c>
       <c r="F16">
@@ -11192,14 +11367,18 @@
         <v>964.32015429122475</v>
       </c>
       <c r="G16">
-        <f t="shared" si="9"/>
-        <v>2.5924999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>482.16007714561238</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="10"/>
+        <v>5.1849999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="C17">
@@ -11209,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3419999999999999E-3</v>
       </c>
       <c r="F17">
@@ -11217,13 +11396,17 @@
         <v>745.15648286140095</v>
       </c>
       <c r="G17">
-        <f t="shared" si="9"/>
-        <v>3.355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>372.57824143070047</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="10"/>
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -11235,20 +11418,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" ref="E18:E19" si="11">(C18-B18)*$B$1</f>
+        <f t="shared" ref="E18:E19" si="12">(C18-B18)*$B$1</f>
         <v>5.3070000000000001E-3</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>188.43037497644619</v>
       </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>94.215187488223094</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>13</v>
@@ -11260,61 +11447,74 @@
         <v>1</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.8560000000000001E-3</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>170.76502732240436</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>85.382513661202182</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
         <v>39</v>
       </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>40</v>
       </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
       <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s">
         <v>40</v>
       </c>
-      <c r="I28" t="s">
-        <v>41</v>
-      </c>
       <c r="J28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1000</v>
       </c>
@@ -11339,143 +11539,175 @@
         <v>964.32015429122475</v>
       </c>
       <c r="G29">
-        <f>E29/3</f>
-        <v>341.53005464480879</v>
+        <f>E29/6</f>
+        <v>170.76502732240439</v>
       </c>
       <c r="H29">
-        <f>F29/3</f>
-        <v>321.44005143040823</v>
+        <f>F29/6</f>
+        <v>160.72002571520412</v>
       </c>
       <c r="I29">
-        <f>E29/4</f>
-        <v>256.14754098360658</v>
+        <f>E29/7</f>
+        <v>146.37002341920376</v>
       </c>
       <c r="J29">
-        <f>F29/4</f>
-        <v>241.08003857280619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <f>F29/7</f>
+        <v>137.76002204160355</v>
+      </c>
+      <c r="K29">
+        <f>E29/8</f>
+        <v>128.07377049180329</v>
+      </c>
+      <c r="L29">
+        <f>F29/8</f>
+        <v>120.54001928640309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1500</v>
       </c>
       <c r="B30" s="8">
-        <f t="shared" ref="B30:B32" si="12">1/(A30*$B$1)</f>
+        <f t="shared" ref="B30:B32" si="13">1/(A30*$B$1)</f>
         <v>10.928961748633879</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" ref="C30:C32" si="13">TRUNC(B30)</f>
+        <f t="shared" ref="C30:C32" si="14">TRUNC(B30)</f>
         <v>10</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" ref="D30:D32" si="14">C30+1</f>
+        <f t="shared" ref="D30:D32" si="15">C30+1</f>
         <v>11</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E32" si="15">1/($B$1*C30)</f>
+        <f t="shared" ref="E30:E32" si="16">1/($B$1*C30)</f>
         <v>1639.344262295082</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F32" si="16">1/($B$1*D30)</f>
+        <f t="shared" ref="F30:F32" si="17">1/($B$1*D30)</f>
         <v>1490.3129657228019</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G32" si="17">E30/3</f>
-        <v>546.44808743169403</v>
+        <f t="shared" ref="G30:G32" si="18">E30/6</f>
+        <v>273.22404371584702</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H32" si="18">F30/3</f>
-        <v>496.77098857426728</v>
+        <f t="shared" ref="H30:H32" si="19">F30/6</f>
+        <v>248.38549428713364</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:I32" si="19">E30/4</f>
-        <v>409.8360655737705</v>
+        <f t="shared" ref="I30:I32" si="20">E30/7</f>
+        <v>234.19203747072601</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J32" si="20">F30/4</f>
-        <v>372.57824143070047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J30:J32" si="21">F30/7</f>
+        <v>212.90185224611454</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K32" si="22">E30/8</f>
+        <v>204.91803278688525</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L32" si="23">F30/8</f>
+        <v>186.28912071535024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2000</v>
       </c>
       <c r="B31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1967213114754092</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="E31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2049.1803278688526</v>
       </c>
       <c r="F31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1821.4936247723133</v>
       </c>
       <c r="G31">
-        <f t="shared" si="17"/>
-        <v>683.06010928961757</v>
+        <f t="shared" si="18"/>
+        <v>341.53005464480879</v>
       </c>
       <c r="H31">
-        <f t="shared" si="18"/>
-        <v>607.16454159077114</v>
+        <f t="shared" si="19"/>
+        <v>303.58227079538557</v>
       </c>
       <c r="I31">
-        <f t="shared" si="19"/>
-        <v>512.29508196721315</v>
+        <f t="shared" si="20"/>
+        <v>292.74004683840752</v>
       </c>
       <c r="J31">
-        <f t="shared" si="20"/>
-        <v>455.37340619307832</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>260.21337496747333</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="22"/>
+        <v>256.14754098360658</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="23"/>
+        <v>227.68670309653916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2500</v>
       </c>
       <c r="B32" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.557377049180328</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="E32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2732.2404371584698</v>
       </c>
       <c r="F32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2341.9203747072602</v>
       </c>
       <c r="G32">
-        <f t="shared" si="17"/>
-        <v>910.74681238615665</v>
+        <f t="shared" si="18"/>
+        <v>455.37340619307832</v>
       </c>
       <c r="H32">
-        <f t="shared" si="18"/>
-        <v>780.6401249024201</v>
+        <f t="shared" si="19"/>
+        <v>390.32006245121005</v>
       </c>
       <c r="I32">
-        <f t="shared" si="19"/>
-        <v>683.06010928961746</v>
+        <f t="shared" si="20"/>
+        <v>390.32006245120999</v>
       </c>
       <c r="J32">
-        <f t="shared" si="20"/>
-        <v>585.48009367681505</v>
+        <f t="shared" si="21"/>
+        <v>334.56005352960858</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="22"/>
+        <v>341.53005464480873</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="23"/>
+        <v>292.74004683840752</v>
       </c>
     </row>
   </sheetData>
@@ -11506,30 +11738,30 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -11555,7 +11787,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -11581,7 +11813,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -11607,7 +11839,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
@@ -11628,12 +11860,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -11659,7 +11891,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -11685,7 +11917,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <f>SUM(E10:E11)</f>
